--- a/data/hotels_by_city/Denver/Denver_shard_234.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_234.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="652">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d224024-Reviews-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Residence-Inn-Denver-SouthwestLakewood.h151011.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1852 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r587826212-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>224024</t>
+  </si>
+  <si>
+    <t>587826212</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Nice Experience</t>
+  </si>
+  <si>
+    <t>You can't really go wrong with a Residence Inn as long as your room is clean.  This one is clean and in a good location with quick access to the freeway.  My room was close to the lobby and I never heard a thing.  I was able to go running at a park that was a half mile away.  The free hot breakfast was more than adequate although they kept running out of coffee.  The evenings have the free happy hour.  Each time I went there was no staff available to give me a beer.  One night I waited about 10 minutes then left.  I still would rate my experience as very good.  The staff is friendly and helpful, as they helped find me a good trail to run.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>You can't really go wrong with a Residence Inn as long as your room is clean.  This one is clean and in a good location with quick access to the freeway.  My room was close to the lobby and I never heard a thing.  I was able to go running at a park that was a half mile away.  The free hot breakfast was more than adequate although they kept running out of coffee.  The evenings have the free happy hour.  Each time I went there was no staff available to give me a beer.  One night I waited about 10 minutes then left.  I still would rate my experience as very good.  The staff is friendly and helpful, as they helped find me a good trail to run.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r586247431-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>586247431</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>My brother and I had a perfect two bedroom suite</t>
+  </si>
+  <si>
+    <t>Since we were sharing the cost, it was affordable.  Nice breakfast.  It was sort of strange that there was a basketball court right in front of the hotel - looked a bit tacky.  Nice location, an outdoor patio.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r584602581-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>584602581</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Queen bed is the only option</t>
+  </si>
+  <si>
+    <t>This particular hotel does not offer a king size bed or two beds in the same room.  The bedrooms of this all "suite" hotel are very, very  small and the only option is a single queen bed.  If you need another bed, you must use the pull-out in the sofa which is in the "living room".  Since this is the only seating other than the desk and kitchen chairs, it basically requires everyone to call it a night when someone wants to sleep in that room.      Each "suite" offers a small kitchen with a refrigerator, cooktop, dish washer and microwave.  The bathroom is small, but everything was very clean.  We stayed on the second floor and had rooms 217 &amp; 219.  We could hear all the footsteps on the floor above us and the floor above 219 creaked.  Since we were there on Memorial weekend, there were many families, so it was noisy anyway.  
+Breakfast is included, but I must say, this was probably one of the worst "free" breakfast buffets I have ever encountered.  The food selections were  minimal, and they frequently ran out of what they did offer.  In addition, the quality and freshness of the toast and bagels was not good.  They did not offer any pastries or the fruit offering was not very inviting.  They did not have bananas, apples, oranges or grapes.  They did have cantaloupe and strawberries.  Needless to say, overall we were disappointed....This particular hotel does not offer a king size bed or two beds in the same room.  The bedrooms of this all "suite" hotel are very, very  small and the only option is a single queen bed.  If you need another bed, you must use the pull-out in the sofa which is in the "living room".  Since this is the only seating other than the desk and kitchen chairs, it basically requires everyone to call it a night when someone wants to sleep in that room.      Each "suite" offers a small kitchen with a refrigerator, cooktop, dish washer and microwave.  The bathroom is small, but everything was very clean.  We stayed on the second floor and had rooms 217 &amp; 219.  We could hear all the footsteps on the floor above us and the floor above 219 creaked.  Since we were there on Memorial weekend, there were many families, so it was noisy anyway.  Breakfast is included, but I must say, this was probably one of the worst "free" breakfast buffets I have ever encountered.  The food selections were  minimal, and they frequently ran out of what they did offer.  In addition, the quality and freshness of the toast and bagels was not good.  They did not offer any pastries or the fruit offering was not very inviting.  They did not have bananas, apples, oranges or grapes.  They did have cantaloupe and strawberries.  Needless to say, overall we were disappointed.   Although we were not thrilled with the hotel itself, the staff was excellent and very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Luis G, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>This particular hotel does not offer a king size bed or two beds in the same room.  The bedrooms of this all "suite" hotel are very, very  small and the only option is a single queen bed.  If you need another bed, you must use the pull-out in the sofa which is in the "living room".  Since this is the only seating other than the desk and kitchen chairs, it basically requires everyone to call it a night when someone wants to sleep in that room.      Each "suite" offers a small kitchen with a refrigerator, cooktop, dish washer and microwave.  The bathroom is small, but everything was very clean.  We stayed on the second floor and had rooms 217 &amp; 219.  We could hear all the footsteps on the floor above us and the floor above 219 creaked.  Since we were there on Memorial weekend, there were many families, so it was noisy anyway.  
+Breakfast is included, but I must say, this was probably one of the worst "free" breakfast buffets I have ever encountered.  The food selections were  minimal, and they frequently ran out of what they did offer.  In addition, the quality and freshness of the toast and bagels was not good.  They did not offer any pastries or the fruit offering was not very inviting.  They did not have bananas, apples, oranges or grapes.  They did have cantaloupe and strawberries.  Needless to say, overall we were disappointed....This particular hotel does not offer a king size bed or two beds in the same room.  The bedrooms of this all "suite" hotel are very, very  small and the only option is a single queen bed.  If you need another bed, you must use the pull-out in the sofa which is in the "living room".  Since this is the only seating other than the desk and kitchen chairs, it basically requires everyone to call it a night when someone wants to sleep in that room.      Each "suite" offers a small kitchen with a refrigerator, cooktop, dish washer and microwave.  The bathroom is small, but everything was very clean.  We stayed on the second floor and had rooms 217 &amp; 219.  We could hear all the footsteps on the floor above us and the floor above 219 creaked.  Since we were there on Memorial weekend, there were many families, so it was noisy anyway.  Breakfast is included, but I must say, this was probably one of the worst "free" breakfast buffets I have ever encountered.  The food selections were  minimal, and they frequently ran out of what they did offer.  In addition, the quality and freshness of the toast and bagels was not good.  They did not offer any pastries or the fruit offering was not very inviting.  They did not have bananas, apples, oranges or grapes.  They did have cantaloupe and strawberries.  Needless to say, overall we were disappointed.   Although we were not thrilled with the hotel itself, the staff was excellent and very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r525016578-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>525016578</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was nice because it was away from downtown. Kids loved the pool. Had a good breakfast and had food and snacks at night. Always had fresh fruit infused water available. Coin laundry and suites with kitchenette. Hotel seemed to be dated slightly though and could use some updating. Would stay here again though. Staff was fantastic. Just not the best Marriott I have ever stayed in. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r521118645-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>521118645</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Red Rocks visit</t>
+  </si>
+  <si>
+    <t>My son and I attended the 75th Birthday Celebration for Jerry Garcia at Red Rocks. We were very close to highways leading to Red Rocks and Denver . The staff was very happy to assist in several incidents. The breakfast was good and the hotel clean. This place is a good value for events on the west side of Denver, I would use them again. Also there are many restaurants within a few miles.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r512029939-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>512029939</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Just take the extra step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just walked into the hotel. The garbage out front was overflowing. I told the front desk. She said she would take care of it. Went for dinner came back it was now all over the ground and no one was at front desk. Just clean it up and be done with it. The hotel otherwise is very nice. Large clean rooms. Well located. If you want a great review clean up your act. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r476606256-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>476606256</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Lakewood</t>
+  </si>
+  <si>
+    <t>Very polite front desk staff.  I wanted creamer for my coffee and they opened the kitchen to get me some.  I had a queen bed suite and was very comfortable.  The mattress was firm and the pillows supportive.  I love getting into clean sheets!  Paul Mitchell hair and body products were nice.  Full kitchen and coffee products .  Light meal served Mon thru Thurs evenings is great.  Nice not having to leave for dinner.  I recommend room 322 as it was closed to the elevator but not noisy.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Very polite front desk staff.  I wanted creamer for my coffee and they opened the kitchen to get me some.  I had a queen bed suite and was very comfortable.  The mattress was firm and the pillows supportive.  I love getting into clean sheets!  Paul Mitchell hair and body products were nice.  Full kitchen and coffee products .  Light meal served Mon thru Thurs evenings is great.  Nice not having to leave for dinner.  I recommend room 322 as it was closed to the elevator but not noisy.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r474332768-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>474332768</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Family stay</t>
+  </si>
+  <si>
+    <t>Wonderful hotel that is clean and comfortable! Staff was friendly and courteous. Rooms were spacious and the beds were comfortable with plenty of pillows. Breakfast was good and varied each day. Evening reception had delicious desserts. Only complaint, we asked for 4 towels and washcloths be placed in our room every day, and they only gave us 4 of them on two nights out of seven.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel that is clean and comfortable! Staff was friendly and courteous. Rooms were spacious and the beds were comfortable with plenty of pillows. Breakfast was good and varied each day. Evening reception had delicious desserts. Only complaint, we asked for 4 towels and washcloths be placed in our room every day, and they only gave us 4 of them on two nights out of seven.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r468695406-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>468695406</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>From here to there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed in this hotel as a resting point on a long drive from Montana to Colorado. Checking in was smooth. Hotel staff was friendly and accommodating.  Pool was a must for our children. There are amenities near by including restaurants and grocery stores. Would stay here again. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r442266996-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>442266996</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>Our hot water heater went out and was not scheduled to be replaced for 3 days, so we really needed a place where we could relax and get cleaned up. We used Marriott Rewards points to book this hotel, Being a Saturday night, it was pretty empty since most of the business travelers who would use this hotel were not there.We really appreciated the availability of the indoor pool, hot tub, and very good free breakfast. If you stay over a Mon, Tue, or Wed night, you also get free cocktails and appetizers.The room was spacious, modern, and super clean. The living area was comfortable, the kitchen had everything you might need, and the bedroom was quiet and comfy. The bathroom and shower/bath were everything we needed.Reception and all the staff people were friendly and helpful. We ended up driving about two miles to White Fence Farm for dinner: the best fried chicken in all of Denver.Highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Our hot water heater went out and was not scheduled to be replaced for 3 days, so we really needed a place where we could relax and get cleaned up. We used Marriott Rewards points to book this hotel, Being a Saturday night, it was pretty empty since most of the business travelers who would use this hotel were not there.We really appreciated the availability of the indoor pool, hot tub, and very good free breakfast. If you stay over a Mon, Tue, or Wed night, you also get free cocktails and appetizers.The room was spacious, modern, and super clean. The living area was comfortable, the kitchen had everything you might need, and the bedroom was quiet and comfy. The bathroom and shower/bath were everything we needed.Reception and all the staff people were friendly and helpful. We ended up driving about two miles to White Fence Farm for dinner: the best fried chicken in all of Denver.Highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r439040889-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>439040889</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Very nice and clean.  All Good</t>
+  </si>
+  <si>
+    <t>Upon check in they tried to give me a 1st floor which i did not want.  I asked is there a second or third floor ?  The manager stated yes we have a second and third floor, then just looked at me..... Couldnt figure out why i was asking.  So i reworded my inquiry to Do you have a second, third floor or higher floor room available ?  Duh.  We were running around all day and looked ragged out, as we were.  Maybe we got a tone because of this.The hotel, room, bathroom and every thing else was very nice and clean.  Love the mini condo setup.  Loved the way the room is set up for business needs.  Comfy bed.  Great bkfst.  Location was not too bad as it was a few miles from restaurants and shops on Wadsworth 121.  About 5 miles up is Belmar an entertainment district with lots of restaraunts and shopping.  You have to drive for anything.  Laundry facilities were good too.  I would stay here again in a minute, i did not mind driving to get food.  You save about $50 per night staying hereMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Upon check in they tried to give me a 1st floor which i did not want.  I asked is there a second or third floor ?  The manager stated yes we have a second and third floor, then just looked at me..... Couldnt figure out why i was asking.  So i reworded my inquiry to Do you have a second, third floor or higher floor room available ?  Duh.  We were running around all day and looked ragged out, as we were.  Maybe we got a tone because of this.The hotel, room, bathroom and every thing else was very nice and clean.  Love the mini condo setup.  Loved the way the room is set up for business needs.  Comfy bed.  Great bkfst.  Location was not too bad as it was a few miles from restaurants and shops on Wadsworth 121.  About 5 miles up is Belmar an entertainment district with lots of restaraunts and shopping.  You have to drive for anything.  Laundry facilities were good too.  I would stay here again in a minute, i did not mind driving to get food.  You save about $50 per night staying hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r438370183-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>438370183</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Spacious, Convenient and Friendly</t>
+  </si>
+  <si>
+    <t>You'll be able to spread out, cook, work and relax in this great location!  Enjoy your work time and grab a bite for breakfast at the buffet!  They have Greek Yogurt and Tasty Eggs! The gym is well stocked with working equipment!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r422283691-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>422283691</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>My sisters wedding party stayed here, because we got a discount on the shuttle to the wedding venue ... The hotel couldn't remember my sisters name so kept booking the wedding party in the wrong group. They over charged us. They never sent us a confirmation email.. Same for my friend and they book him on the wrong day and charged him for a no call no show .. They didn't upgrade my sister room when she was the bride and we had a big group staying there. The house cleaning walked in on my brother in law while he was in the bathroom ... The people at this hotel have no idea what there doingMoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly B, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>My sisters wedding party stayed here, because we got a discount on the shuttle to the wedding venue ... The hotel couldn't remember my sisters name so kept booking the wedding party in the wrong group. They over charged us. They never sent us a confirmation email.. Same for my friend and they book him on the wrong day and charged him for a no call no show .. They didn't upgrade my sister room when she was the bride and we had a big group staying there. The house cleaning walked in on my brother in law while he was in the bathroom ... The people at this hotel have no idea what there doingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r420538350-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>420538350</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>modern/clean property.  coffee service policy was disappointing</t>
+  </si>
+  <si>
+    <t>in town for friends' wedding...positive...room was clean and spaciousamenities worked fine (iron, fridge, microwave, etc.)our requests for delayed room servicing were accommodated well.good breakfast yogurt selection (Greek &amp; light)negative...no lobby coffee past breakfast (only hot water for tea).  this is the only Marriott that I have ever stayed at that took the coffee away after breakfast.  every other Marriott has regular / decaf / dark roast out for breakfast only, but leaves the regular roast out all day.  hence I was disappointed by this policy.when asked where we could get coffee after 9:30 AM, we were told to walk across street to their sister property (Courtyard), and purchase Starbucks.breakfast items were not replenished throughout serving hours.  staff seemed to want to clean up early.jar of blueberries was only put out on 1st morning of breakfast, not 2nd/3rd morning.  again, these are always a staple of Marriott breakfast and good on yogurt.Marriott reservation confirmation email offered Bistro coupons (for the sister Courtyard property across the parking lot) to be picked up at front desk.  when asked, front desk seemed confused and said that the email was wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>KatelynBrown, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>in town for friends' wedding...positive...room was clean and spaciousamenities worked fine (iron, fridge, microwave, etc.)our requests for delayed room servicing were accommodated well.good breakfast yogurt selection (Greek &amp; light)negative...no lobby coffee past breakfast (only hot water for tea).  this is the only Marriott that I have ever stayed at that took the coffee away after breakfast.  every other Marriott has regular / decaf / dark roast out for breakfast only, but leaves the regular roast out all day.  hence I was disappointed by this policy.when asked where we could get coffee after 9:30 AM, we were told to walk across street to their sister property (Courtyard), and purchase Starbucks.breakfast items were not replenished throughout serving hours.  staff seemed to want to clean up early.jar of blueberries was only put out on 1st morning of breakfast, not 2nd/3rd morning.  again, these are always a staple of Marriott breakfast and good on yogurt.Marriott reservation confirmation email offered Bistro coupons (for the sister Courtyard property across the parking lot) to be picked up at front desk.  when asked, front desk seemed confused and said that the email was wrong.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r414050906-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>414050906</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>We received a room upgrade upon arrival and our accommodation was clean and spacious.  The hotel provided a free social hour Monday - Wednesday which was a nice bonus.  The location was very convenient and provided easy on and off access to highway without excessive traffic issues and there were lots of restaurants in the immediate area.  The free breakfast was nice and the service was outstanding.  I would recommend this property and would personally stay here again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r396670971-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>396670971</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Place</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 8 days. The room was updated, quiet and comfortable. Also has a nice indoor pool and jacuzzi. They also have an outside sitting area which is very popular, so if you want to sit out there get out there early. Breakfast was OK, they had the main items that you grow to expect with a breakfast buffet. All of the staff were awesome!! Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r396634796-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>396634796</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Everything we have come to expect from a Residence Inn... Clean, comfortable rooms, with good bedding, full kitchen and living area, free wifi, and breakfast every morning. This was the first time I've had to use their laundry facilities. The machines were in good working order. Quarters, laundry detergent, and bounce were available at the front desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r395986285-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>395986285</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Pretty good hub for a family vaca</t>
+  </si>
+  <si>
+    <t>Nice standard RI.  Really a great breakfast every morning; the menu rotated so we weren't stuck with the same food every day for the week we were there. Super convenient location; we hubbed here and traveled to the mountains, boulder, and colo springs several times from here.  The nearby Lakewood park with lake, beach, water sports and horseback riding can't be beat and is only 10 minutes away.  Mountain retreats literally 1/2 hour away with zipping and canoeing at nearby Idaho Springs. Had a great time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r379198723-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>379198723</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Say</t>
+  </si>
+  <si>
+    <t>The room was nice (not terribly modern or anything), and overall very clean.  We had absolutely no problems with the property and would definitely stay again.  The hotel is kept up nicely and it's in a great location.  Bring your own pillow if you can't handle really thick ones, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>KatelynBrown, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>The room was nice (not terribly modern or anything), and overall very clean.  We had absolutely no problems with the property and would definitely stay again.  The hotel is kept up nicely and it's in a great location.  Bring your own pillow if you can't handle really thick ones, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r369926174-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>369926174</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Our family with three small children stayed here for 3 weeks. our suite was comfortable and clean. The bed was more comfortable than expected. The staff is incredible! Housekeeping is wonderful, the front desk workers were great! The staff went above an beyond to make sure our family was taken care of. My family loved the breakfasts (although no one in my family liked their scrambled eggs...they taste odd) and we especially loved this dinners! I'm a vegetarian and they rarely, if ever, had vegetarian options, but on Grill Night I gave them my veggie burgers and they were happy to grill it for me! This place is a mom's dream...someone else makes breakfast, no clean-up, someone else makes the beds, and 3 nights a week someone else makes dinner!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>KatelynBrown, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Our family with three small children stayed here for 3 weeks. our suite was comfortable and clean. The bed was more comfortable than expected. The staff is incredible! Housekeeping is wonderful, the front desk workers were great! The staff went above an beyond to make sure our family was taken care of. My family loved the breakfasts (although no one in my family liked their scrambled eggs...they taste odd) and we especially loved this dinners! I'm a vegetarian and they rarely, if ever, had vegetarian options, but on Grill Night I gave them my veggie burgers and they were happy to grill it for me! This place is a mom's dream...someone else makes breakfast, no clean-up, someone else makes the beds, and 3 nights a week someone else makes dinner!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r357711814-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>357711814</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Clean, quiet, good breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here once again on a trip while visiting family in the Denver area.  I have always liked Residence Inns for the larger rooms and good breakfasts.  This location is particularly good.  This trip I arrived early but the person at the desk was able to accommodate an early check-in for me...very much appreciated.  This location is convenient to the entire western Denver metro area with easy access to main thoroughfares.  The room was quiet even though the facility is located near a main highway.  There is an abundance of available, convenient parking.  Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here once again on a trip while visiting family in the Denver area.  I have always liked Residence Inns for the larger rooms and good breakfasts.  This location is particularly good.  This trip I arrived early but the person at the desk was able to accommodate an early check-in for me...very much appreciated.  This location is convenient to the entire western Denver metro area with easy access to main thoroughfares.  The room was quiet even though the facility is located near a main highway.  There is an abundance of available, convenient parking.  Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r350406665-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>350406665</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>clean, friendly, quiet, safe</t>
+  </si>
+  <si>
+    <t>Our queen suite was clean, excellent condition, staff was pleasant and helpful.   Enjoyed the quiet area, excellent for nice walk in the mornings.   Breakfast was good.  Only negative was barking dog across hall we heard several times.    Staff stated our room never has dogs.... trust that is correct as we requested dog free room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded February 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2016</t>
+  </si>
+  <si>
+    <t>Our queen suite was clean, excellent condition, staff was pleasant and helpful.   Enjoyed the quiet area, excellent for nice walk in the mornings.   Breakfast was good.  Only negative was barking dog across hall we heard several times.    Staff stated our room never has dogs.... trust that is correct as we requested dog free room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r350215123-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>350215123</t>
+  </si>
+  <si>
+    <t>Denver trip Feb 2016/Lakewood Residence Inn</t>
+  </si>
+  <si>
+    <t>Awesome stay with great accomodations!! Recommend this hotel; clean, staff very attentive! Breakfast more than full service...work out room small but enough. Hot tub was excellent with pool. Great location and short distance to Golden/Denver. Would have rebooked for July but already sold out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome stay with great accomodations!! Recommend this hotel; clean, staff very attentive! Breakfast more than full service...work out room small but enough. Hot tub was excellent with pool. Great location and short distance to Golden/Denver. Would have rebooked for July but already sold out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r341472976-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>341472976</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Seems a sure bet most anywhere</t>
+  </si>
+  <si>
+    <t>Full Kitchen, in-house exercise room, breakfast, evening mixers, shuttle vehicle, just for you. Good price, good maid service, at these hotels.  The place is set-up for long-term stays it seems but I would say when you travel, if you can book here: just do it. You won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Full Kitchen, in-house exercise room, breakfast, evening mixers, shuttle vehicle, just for you. Good price, good maid service, at these hotels.  The place is set-up for long-term stays it seems but I would say when you travel, if you can book here: just do it. You won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r330391722-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>330391722</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Very good Residence Inn</t>
+  </si>
+  <si>
+    <t>I like Residence Inns for the large rooms, free breakfasts and overall homey atmosphere.  I have been to a number of them around the country.  I found this one to be put together especially well.  Like all RI's, it is clean.  This one had an especially large, roomy breakfast area.  It also seemed to be very soundproof...no noise from other rooms or from the nearby highways.  The location is convenient to the western side of the Denver metro area.  It is also convenient to the foothills of the Rockies.  There is plenty of parking and there are a number of nearby restaurants.  I gave it 4 stars simply because it is not a five-star hotel nor is it meant to be.  But at its price point it is about as good as it gets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>I like Residence Inns for the large rooms, free breakfasts and overall homey atmosphere.  I have been to a number of them around the country.  I found this one to be put together especially well.  Like all RI's, it is clean.  This one had an especially large, roomy breakfast area.  It also seemed to be very soundproof...no noise from other rooms or from the nearby highways.  The location is convenient to the western side of the Denver metro area.  It is also convenient to the foothills of the Rockies.  There is plenty of parking and there are a number of nearby restaurants.  I gave it 4 stars simply because it is not a five-star hotel nor is it meant to be.  But at its price point it is about as good as it gets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r325351762-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>325351762</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>A beautiful hotel! The mixers during the week were fun, breakfast in the morning was great! Eggs, oatmeal, fruit, waffles, home fries, juice. The pool was the perfect temperature, not warm, not cold, and the hot tub was great! Especially since my back was very sore after a couple days. My room was quite large, like a studio apartment. The kitchen and living area were beautiful. The fridge was too cold and froze my salads even though I turned it up. The bedroom, dressing room and bathroom were very roomy. My only complaint was my bed was much too soft, no support at all. I have found this at most hotels. Mattresses should be semi-firm with good support. If they want to make the mattress soft then get a pillow-top. I was here for 4 nights. I'd love to stay here again. One of the desk staff said they were getting new mattresses. Hopefully more supportive ones.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>A beautiful hotel! The mixers during the week were fun, breakfast in the morning was great! Eggs, oatmeal, fruit, waffles, home fries, juice. The pool was the perfect temperature, not warm, not cold, and the hot tub was great! Especially since my back was very sore after a couple days. My room was quite large, like a studio apartment. The kitchen and living area were beautiful. The fridge was too cold and froze my salads even though I turned it up. The bedroom, dressing room and bathroom were very roomy. My only complaint was my bed was much too soft, no support at all. I have found this at most hotels. Mattresses should be semi-firm with good support. If they want to make the mattress soft then get a pillow-top. I was here for 4 nights. I'd love to stay here again. One of the desk staff said they were getting new mattresses. Hopefully more supportive ones.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r324103277-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>324103277</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Love 2 sleep</t>
+  </si>
+  <si>
+    <t>As all the Residence Inn by Marriott, this is a fine hotel.  The rooms are large and comfy.  They are have a wonderful staff. I arrived a little early and they were able to check me in.  Lots of restaurants within easy driving distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded November 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2015</t>
+  </si>
+  <si>
+    <t>As all the Residence Inn by Marriott, this is a fine hotel.  The rooms are large and comfy.  They are have a wonderful staff. I arrived a little early and they were able to check me in.  Lots of restaurants within easy driving distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r312427348-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>312427348</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Perfect for Red Rocks concert</t>
+  </si>
+  <si>
+    <t>The staff was super friendly. We enjoyed our stay. There was 5 of us in town for a concert. We reserved the 2 bedroom/2 bathrooms suite. It accommodated us perfectly. The room was very clean and appointed nicely. We called an Uber for pick up to take us to Red Rocks and they picked us up right at the hotel. So worth it! Breakfast was ok, typical offerings for hotel breakfast, it met our needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>The staff was super friendly. We enjoyed our stay. There was 5 of us in town for a concert. We reserved the 2 bedroom/2 bathrooms suite. It accommodated us perfectly. The room was very clean and appointed nicely. We called an Uber for pick up to take us to Red Rocks and they picked us up right at the hotel. So worth it! Breakfast was ok, typical offerings for hotel breakfast, it met our needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r310131925-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>310131925</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>For a family reunion held elsewhere, several family members stayed in one of the two bedroom suites.  They were very nice, comfortable and clean.  We were very satisfied and the staff, especially Bethany Mello the Operations Manager, were very professional and helpful.  We still be staying here again.  Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>For a family reunion held elsewhere, several family members stayed in one of the two bedroom suites.  They were very nice, comfortable and clean.  We were very satisfied and the staff, especially Bethany Mello the Operations Manager, were very professional and helpful.  We still be staying here again.  Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r308394812-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>308394812</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Property, Excellence Customer Service</t>
+  </si>
+  <si>
+    <t>We had to plan a wedding last minute and ended up finding the Residence Inn and Courtyard Marriott locations. We were put in touch with the amazing Ashley J. who helped us plan everything. Their services and amenities were outstanding and they had a beautiful room we used for the Bridal Shower and Reception. The food was great, the deceptions were beautiful, it was all perfect. Not to mention the rooms were comfortable and spacious. We would absolutely suggest using these properties for an event or family gathering, it was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>We had to plan a wedding last minute and ended up finding the Residence Inn and Courtyard Marriott locations. We were put in touch with the amazing Ashley J. who helped us plan everything. Their services and amenities were outstanding and they had a beautiful room we used for the Bridal Shower and Reception. The food was great, the deceptions were beautiful, it was all perfect. Not to mention the rooms were comfortable and spacious. We would absolutely suggest using these properties for an event or family gathering, it was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r298534280-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>298534280</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in a two bedroom suite. It was nice to have two full bathrooms in our suite.The newer firepit on the patio was nice, but too bad it was surrounded by bedrooms so we couldn't be out there long. The evening receptions and breakfasts were a little better than most hotels. The only down side was that we had made reservations as part of a softball tournament and they wouldn't let us change our arrival or departure dates after 60 days before our arrival  we ended up paying for two nights we weren't there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Tim G, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in a two bedroom suite. It was nice to have two full bathrooms in our suite.The newer firepit on the patio was nice, but too bad it was surrounded by bedrooms so we couldn't be out there long. The evening receptions and breakfasts were a little better than most hotels. The only down side was that we had made reservations as part of a softball tournament and they wouldn't let us change our arrival or departure dates after 60 days before our arrival  we ended up paying for two nights we weren't there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r288959369-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>288959369</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 days while attending a softball tournament. The staff was great, both at the front desk and the housekeeping staff. Everyone was very friendly and accommodating. The rooms were nice, beds were comfy, breakfast was good. Can't think of anything bad to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 days while attending a softball tournament. The staff was great, both at the front desk and the housekeeping staff. Everyone was very friendly and accommodating. The rooms were nice, beds were comfy, breakfast was good. Can't think of anything bad to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r288847244-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>288847244</t>
+  </si>
+  <si>
+    <t>Last time I stay at a Marriott property</t>
+  </si>
+  <si>
+    <t>Management is very unhelpful, as a corporate traveller AND a rewards member I was treated poorly, Kelly's (whoever she was) tone of voice was beyond what a valued customer should expect to hear. The room is dated but it's ok. But it is not the rooms that make the hotel - it is the people that work there- their smile, help and the impression they leave. Not returning to this property and not staying at Marriott. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Management is very unhelpful, as a corporate traveller AND a rewards member I was treated poorly, Kelly's (whoever she was) tone of voice was beyond what a valued customer should expect to hear. The room is dated but it's ok. But it is not the rooms that make the hotel - it is the people that work there- their smile, help and the impression they leave. Not returning to this property and not staying at Marriott. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r279098515-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>279098515</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Stayed for a 3 night show at red rocks we were in town for. Wonderful staff, hotel, extra aments. etc. 20 minutes drive from red rocks. community stuff like tennis, a basketball court and a grill. also a propane gas fire place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for a 3 night show at red rocks we were in town for. Wonderful staff, hotel, extra aments. etc. 20 minutes drive from red rocks. community stuff like tennis, a basketball court and a grill. also a propane gas fire place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r276280091-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>276280091</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>I was more than impressed</t>
+  </si>
+  <si>
+    <t>I have never stayed at a Residence Inn before this stay. First of all, I was highly impressed with the staff. The hotel was beautifully decorated and the room was by far worth every single dollar. I was expecting the regular run of the mill eggs, sausage, biscuit and gravy breakfast that I do not really care for and was so EXTREMELY happy with the StarbucksMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Kelly B, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>I have never stayed at a Residence Inn before this stay. First of all, I was highly impressed with the staff. The hotel was beautifully decorated and the room was by far worth every single dollar. I was expecting the regular run of the mill eggs, sausage, biscuit and gravy breakfast that I do not really care for and was so EXTREMELY happy with the StarbucksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r275118332-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>275118332</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>State Track Meet stay</t>
+  </si>
+  <si>
+    <t>Our grandsons qualified for Colorado State Track Meet and we were not about to miss it! I stay at Residence Inns when I travel for business so I did not hesitate in booking our stay for a fun event. Our room was very clean and we really liked the set up of the room! After sitting all day Friday at the stadium we were ready to get a shower, rest and have supper. The room was so comfortable and inviting we decided to order in and watch TV!Breakfast was really yummy and the service was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Our grandsons qualified for Colorado State Track Meet and we were not about to miss it! I stay at Residence Inns when I travel for business so I did not hesitate in booking our stay for a fun event. Our room was very clean and we really liked the set up of the room! After sitting all day Friday at the stadium we were ready to get a shower, rest and have supper. The room was so comfortable and inviting we decided to order in and watch TV!Breakfast was really yummy and the service was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r260395143-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>260395143</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Home like stay</t>
+  </si>
+  <si>
+    <t>My pre-teen daughter and I stayed here one night in February 2015 for a dance competition in Denver.  The hotel was very clean and updated in a sleek, modern style. We stayed in a one king bed room, and she loved having so much space with the living area and kitchen too. She wished we could have spent more time, but we arrived late and had to get up early for the competition.  The room was very clean and well appointed. We enjoyed the pool and hot tub before going to bed and it was warm, which is high on our list! We hate cold pools. We specifically chose this property over some other nearby properties and paid a little more so she could swim indoors in the middle of February, and we weren't disappointed. We enjoyed the hot breakfast in the morning, and it had a variety of foods such as hot eggs, waffles, delicious chocolate chip muffins, coffee, juice and fruit.  Perfect way to fuel up before her dance competition. Our only criticism would be that they should staff the front desk with more than one evening clerk. We arrived around 7 pm and had to wait while she answered phones and checked in one other guest, while one guest was waiting their turn behind us.  It took about 20 minutes of waiting, and although she was extremely polite and apologetic for the wait, it would help her...My pre-teen daughter and I stayed here one night in February 2015 for a dance competition in Denver.  The hotel was very clean and updated in a sleek, modern style. We stayed in a one king bed room, and she loved having so much space with the living area and kitchen too. She wished we could have spent more time, but we arrived late and had to get up early for the competition.  The room was very clean and well appointed. We enjoyed the pool and hot tub before going to bed and it was warm, which is high on our list! We hate cold pools. We specifically chose this property over some other nearby properties and paid a little more so she could swim indoors in the middle of February, and we weren't disappointed. We enjoyed the hot breakfast in the morning, and it had a variety of foods such as hot eggs, waffles, delicious chocolate chip muffins, coffee, juice and fruit.  Perfect way to fuel up before her dance competition. Our only criticism would be that they should staff the front desk with more than one evening clerk. We arrived around 7 pm and had to wait while she answered phones and checked in one other guest, while one guest was waiting their turn behind us.  It took about 20 minutes of waiting, and although she was extremely polite and apologetic for the wait, it would help her job and the guests experience to have two clerks available on a Friday evening.  It was a very enjoyable stay and we would recommend it to others and stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Kelly B, Assistant General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>My pre-teen daughter and I stayed here one night in February 2015 for a dance competition in Denver.  The hotel was very clean and updated in a sleek, modern style. We stayed in a one king bed room, and she loved having so much space with the living area and kitchen too. She wished we could have spent more time, but we arrived late and had to get up early for the competition.  The room was very clean and well appointed. We enjoyed the pool and hot tub before going to bed and it was warm, which is high on our list! We hate cold pools. We specifically chose this property over some other nearby properties and paid a little more so she could swim indoors in the middle of February, and we weren't disappointed. We enjoyed the hot breakfast in the morning, and it had a variety of foods such as hot eggs, waffles, delicious chocolate chip muffins, coffee, juice and fruit.  Perfect way to fuel up before her dance competition. Our only criticism would be that they should staff the front desk with more than one evening clerk. We arrived around 7 pm and had to wait while she answered phones and checked in one other guest, while one guest was waiting their turn behind us.  It took about 20 minutes of waiting, and although she was extremely polite and apologetic for the wait, it would help her...My pre-teen daughter and I stayed here one night in February 2015 for a dance competition in Denver.  The hotel was very clean and updated in a sleek, modern style. We stayed in a one king bed room, and she loved having so much space with the living area and kitchen too. She wished we could have spent more time, but we arrived late and had to get up early for the competition.  The room was very clean and well appointed. We enjoyed the pool and hot tub before going to bed and it was warm, which is high on our list! We hate cold pools. We specifically chose this property over some other nearby properties and paid a little more so she could swim indoors in the middle of February, and we weren't disappointed. We enjoyed the hot breakfast in the morning, and it had a variety of foods such as hot eggs, waffles, delicious chocolate chip muffins, coffee, juice and fruit.  Perfect way to fuel up before her dance competition. Our only criticism would be that they should staff the front desk with more than one evening clerk. We arrived around 7 pm and had to wait while she answered phones and checked in one other guest, while one guest was waiting their turn behind us.  It took about 20 minutes of waiting, and although she was extremely polite and apologetic for the wait, it would help her job and the guests experience to have two clerks available on a Friday evening.  It was a very enjoyable stay and we would recommend it to others and stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r257542890-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>257542890</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Spacious and Inviting</t>
+  </si>
+  <si>
+    <t>We had a mini family get-away and this was the perfect hotel that allowed us to spend quality time together in a luxurious, cozy setting. We all were impressed with the beds and the bedding. The pillows seemed like they were brand new and the bedding was so soft, fresh and welcoming to the end of a long day.  We all had a restful sleep. Every morning embraced us with a warm welcome and a hot breakfast. Sunday they served the classic "sausage gravy with biscuits" and I do admit they were the best I've ever had because they were not spicy which I was very grateful.  Another item they served every morning was fresh, hot oatmeal complete with choices of walnuts, raisins and brown sugar.Another cool thing about this hotel is that they have a few "social" nights a week including BINGO with in-room movies as prizes makes some great family fun!Bottom line, the atmosphere and hospitality found on this property was 5 star and I would definitely  make this my go-to property wherever visiting the area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Front Office Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2015</t>
+  </si>
+  <si>
+    <t>We had a mini family get-away and this was the perfect hotel that allowed us to spend quality time together in a luxurious, cozy setting. We all were impressed with the beds and the bedding. The pillows seemed like they were brand new and the bedding was so soft, fresh and welcoming to the end of a long day.  We all had a restful sleep. Every morning embraced us with a warm welcome and a hot breakfast. Sunday they served the classic "sausage gravy with biscuits" and I do admit they were the best I've ever had because they were not spicy which I was very grateful.  Another item they served every morning was fresh, hot oatmeal complete with choices of walnuts, raisins and brown sugar.Another cool thing about this hotel is that they have a few "social" nights a week including BINGO with in-room movies as prizes makes some great family fun!Bottom line, the atmosphere and hospitality found on this property was 5 star and I would definitely  make this my go-to property wherever visiting the area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r257383971-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>257383971</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Sensational "Mother and Daughter" Night in the "Backyard"</t>
+  </si>
+  <si>
+    <t>My daughter and I spent the night at the Residence Inn, Lakewood, because of a Marriott MegaBonus night I'd earned.  Although we live within 3 miles of the hotel, we'd never been inside.  Residence Inn, Lakewood gets five stars in our book.  The property is newly renovated and has a great indoor pool and hottub with noodles and fresh towels conveniently placed both on chairs and on etagere; a lovely lobby; kind and professional attendants who made a point of greeting us enthusiastically and asking how they could assist us; and a very nice breakfast (Eggs Florentine, scrambled eggs, fruits, cereals, breads, sausage, waffle maker, cereals, yoghurt, juices, coffee, tea) that exceeded expectations.  Cleanliness was super and the new appliances in the kitchen were great.  The bed was very comfortable and the art was neat as well -- it didn't seem typical of a franchise.   A sweet touch was that our area has recently had a bit of snow.  A sign taped to the window facing the courtyard 'named' a snowman that three recent guests had built and included their signature.  What a fun opportunity for those children and how kind of the Residence Inn staff to allow them to leave their mark in an innocuous way!  Simultaneously, I noticed many business travelers on a Monday morning, several of whom knew the staff by name and who were greeted by name, indicating that this property serves business travelers very well,...My daughter and I spent the night at the Residence Inn, Lakewood, because of a Marriott MegaBonus night I'd earned.  Although we live within 3 miles of the hotel, we'd never been inside.  Residence Inn, Lakewood gets five stars in our book.  The property is newly renovated and has a great indoor pool and hottub with noodles and fresh towels conveniently placed both on chairs and on etagere; a lovely lobby; kind and professional attendants who made a point of greeting us enthusiastically and asking how they could assist us; and a very nice breakfast (Eggs Florentine, scrambled eggs, fruits, cereals, breads, sausage, waffle maker, cereals, yoghurt, juices, coffee, tea) that exceeded expectations.  Cleanliness was super and the new appliances in the kitchen were great.  The bed was very comfortable and the art was neat as well -- it didn't seem typical of a franchise.   A sweet touch was that our area has recently had a bit of snow.  A sign taped to the window facing the courtyard 'named' a snowman that three recent guests had built and included their signature.  What a fun opportunity for those children and how kind of the Residence Inn staff to allow them to leave their mark in an innocuous way!  Simultaneously, I noticed many business travelers on a Monday morning, several of whom knew the staff by name and who were greeted by name, indicating that this property serves business travelers very well, too.My only suggestion is minor and is one I'm borrowing from another Residence Inn property (this one in Bethesda):  keep chip clips either as a magnet on the suite fridge or in the utensil drawer.  I usually carry binder clips with me (for fastening curtains to ensure blackout -- not necessary for this property) but I didn't have any and I *did* have a bag of tortilla chips that were part of our 'special treat'.  The chip clip would have proven handy.When my only suggestions are totally superfluous, I know a property and its team members have done their job :).We use Residence Inn properties for 'in between' nights (often the night before a flight) and have used them for transitions when we are moving.  We've never been disappointed. Now, we've found a 'close to home' property to use for special, very local getaways for 'mother and daughter' nights.  Kudos to the Residence Inn, Lakewood!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My daughter and I spent the night at the Residence Inn, Lakewood, because of a Marriott MegaBonus night I'd earned.  Although we live within 3 miles of the hotel, we'd never been inside.  Residence Inn, Lakewood gets five stars in our book.  The property is newly renovated and has a great indoor pool and hottub with noodles and fresh towels conveniently placed both on chairs and on etagere; a lovely lobby; kind and professional attendants who made a point of greeting us enthusiastically and asking how they could assist us; and a very nice breakfast (Eggs Florentine, scrambled eggs, fruits, cereals, breads, sausage, waffle maker, cereals, yoghurt, juices, coffee, tea) that exceeded expectations.  Cleanliness was super and the new appliances in the kitchen were great.  The bed was very comfortable and the art was neat as well -- it didn't seem typical of a franchise.   A sweet touch was that our area has recently had a bit of snow.  A sign taped to the window facing the courtyard 'named' a snowman that three recent guests had built and included their signature.  What a fun opportunity for those children and how kind of the Residence Inn staff to allow them to leave their mark in an innocuous way!  Simultaneously, I noticed many business travelers on a Monday morning, several of whom knew the staff by name and who were greeted by name, indicating that this property serves business travelers very well,...My daughter and I spent the night at the Residence Inn, Lakewood, because of a Marriott MegaBonus night I'd earned.  Although we live within 3 miles of the hotel, we'd never been inside.  Residence Inn, Lakewood gets five stars in our book.  The property is newly renovated and has a great indoor pool and hottub with noodles and fresh towels conveniently placed both on chairs and on etagere; a lovely lobby; kind and professional attendants who made a point of greeting us enthusiastically and asking how they could assist us; and a very nice breakfast (Eggs Florentine, scrambled eggs, fruits, cereals, breads, sausage, waffle maker, cereals, yoghurt, juices, coffee, tea) that exceeded expectations.  Cleanliness was super and the new appliances in the kitchen were great.  The bed was very comfortable and the art was neat as well -- it didn't seem typical of a franchise.   A sweet touch was that our area has recently had a bit of snow.  A sign taped to the window facing the courtyard 'named' a snowman that three recent guests had built and included their signature.  What a fun opportunity for those children and how kind of the Residence Inn staff to allow them to leave their mark in an innocuous way!  Simultaneously, I noticed many business travelers on a Monday morning, several of whom knew the staff by name and who were greeted by name, indicating that this property serves business travelers very well, too.My only suggestion is minor and is one I'm borrowing from another Residence Inn property (this one in Bethesda):  keep chip clips either as a magnet on the suite fridge or in the utensil drawer.  I usually carry binder clips with me (for fastening curtains to ensure blackout -- not necessary for this property) but I didn't have any and I *did* have a bag of tortilla chips that were part of our 'special treat'.  The chip clip would have proven handy.When my only suggestions are totally superfluous, I know a property and its team members have done their job :).We use Residence Inn properties for 'in between' nights (often the night before a flight) and have used them for transitions when we are moving.  We've never been disappointed. Now, we've found a 'close to home' property to use for special, very local getaways for 'mother and daughter' nights.  Kudos to the Residence Inn, Lakewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r242562839-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>242562839</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>The people make it special</t>
+  </si>
+  <si>
+    <t>The staff of this Residence Inn make it much better than the typical chain hotel. I've stayed there many times over the last few years and the staff consistently goes out of their way to help - from finding a tray so a 7 year old could deliver breakfast in bed to his grandmother to simply welcoming you back after a day of shopping, they are great.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>The staff of this Residence Inn make it much better than the typical chain hotel. I've stayed there many times over the last few years and the staff consistently goes out of their way to help - from finding a tray so a 7 year old could deliver breakfast in bed to his grandmother to simply welcoming you back after a day of shopping, they are great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r241828143-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>241828143</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Great Service, Very Accommodating</t>
+  </si>
+  <si>
+    <t>The hotel was under remodeling so they moved the reception area and the breakfast/social area into a guest room and a suite, making it hard at first to find them.  We stayed in a 2 bedroom, 2 bath suite.  It was nice and clean despite being a bit old (that's why it's being remodeled).  Amenities were top-notch:  USA Today newspapers, hot full daily breakfast, evening social, free Wi-Fi, Paul Mitchell shampoo, etc..  Beth Mello, Operations Supervisor, made sure every of our requests was satisfactorily met.  We'd stay there again when we're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was under remodeling so they moved the reception area and the breakfast/social area into a guest room and a suite, making it hard at first to find them.  We stayed in a 2 bedroom, 2 bath suite.  It was nice and clean despite being a bit old (that's why it's being remodeled).  Amenities were top-notch:  USA Today newspapers, hot full daily breakfast, evening social, free Wi-Fi, Paul Mitchell shampoo, etc..  Beth Mello, Operations Supervisor, made sure every of our requests was satisfactorily met.  We'd stay there again when we're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r237170663-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>237170663</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Best staff ever !</t>
+  </si>
+  <si>
+    <t>I stayed here from 6-11 October 2014 for a conference; and would like to commend the hotel for its excellent staff, friendly, helpful,  especially Night Auditor, who went out of his way to help me, on the Wed/Thur night, to set up a taxi to airport for Saturday morning.  All Front Desk, and Breakfast and bedroom staff, were great!   The breakfast was really outstanding, very fresh an top quality...MoreShow less</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here from 6-11 October 2014 for a conference; and would like to commend the hotel for its excellent staff, friendly, helpful,  especially Night Auditor, who went out of his way to help me, on the Wed/Thur night, to set up a taxi to airport for Saturday morning.  All Front Desk, and Breakfast and bedroom staff, were great!   The breakfast was really outstanding, very fresh an top quality...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r220163420-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>220163420</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Lucky find</t>
+  </si>
+  <si>
+    <t>We ended up here due to overbooking at a different associated property- and we were super happy with the change!  The manager was very accommodating our sudden arrival, the suite and amenities were better than the place we were moved from, breakfast was a nice selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>We ended up here due to overbooking at a different associated property- and we were super happy with the change!  The manager was very accommodating our sudden arrival, the suite and amenities were better than the place we were moved from, breakfast was a nice selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r218539411-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>218539411</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Rooms are clean, staff is friendly</t>
+  </si>
+  <si>
+    <t>I just completed my second stay at the hotel.  I came back because the rooms have a fridge, small kitchen and they have breakfast.  My room was clean, but very worn.  I was disappointed that my room was not cleaned.  I stopped at the front desk to ask for towels and the trash to be emptied at a minimum.  That is exactly what I got.  Not the end of the world, but I would have liked to have the full cleaning.They are scheduled to renovate this fall.  It is needed.  This is a good, middle of the road choice.  It is ideal for business travelers.  There are numerous restaurants nearby along with a convenient grocery store.  WiFi is included and that is a major plus for me.  There is an Extended Stay America right around the corner that is much newer.  If I have to go before the renovation, I will likely give that a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2014</t>
+  </si>
+  <si>
+    <t>I just completed my second stay at the hotel.  I came back because the rooms have a fridge, small kitchen and they have breakfast.  My room was clean, but very worn.  I was disappointed that my room was not cleaned.  I stopped at the front desk to ask for towels and the trash to be emptied at a minimum.  That is exactly what I got.  Not the end of the world, but I would have liked to have the full cleaning.They are scheduled to renovate this fall.  It is needed.  This is a good, middle of the road choice.  It is ideal for business travelers.  There are numerous restaurants nearby along with a convenient grocery store.  WiFi is included and that is a major plus for me.  There is an Extended Stay America right around the corner that is much newer.  If I have to go before the renovation, I will likely give that a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r217683532-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217683532</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Loud neighbors after midnight</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and been disappointed before.  I am a loyal Marriott member, 92 stays for pleasure.  One time they could not honor my reservation and sent us across the street to Courtyard (no kitchen, no free breakfast)This time the place seemed deserted when we checked in at 4:30 and were given a 2nd floor room ( my profile requests a high floor). When we returned from out evening event at 11:00 there was a lot of heavy walking noise from the room above us.  After 30 minutes with no let up I called the desk &amp; asked the clerk to call the room to ask them to quiet down.  By midnight it sounded like they were playing basketball in the room above us.  I called the front desk again and was told that there was a child on crutches &amp; the noise couldn't be helped - after midnight!I asked to be moved to another room and was told they were sold out as was the Courtyard across the street.  Their solution was to move us to another property 25 minutes away.  We got checked in at 2:00 am. No kitchen, no free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and been disappointed before.  I am a loyal Marriott member, 92 stays for pleasure.  One time they could not honor my reservation and sent us across the street to Courtyard (no kitchen, no free breakfast)This time the place seemed deserted when we checked in at 4:30 and were given a 2nd floor room ( my profile requests a high floor). When we returned from out evening event at 11:00 there was a lot of heavy walking noise from the room above us.  After 30 minutes with no let up I called the desk &amp; asked the clerk to call the room to ask them to quiet down.  By midnight it sounded like they were playing basketball in the room above us.  I called the front desk again and was told that there was a child on crutches &amp; the noise couldn't be helped - after midnight!I asked to be moved to another room and was told they were sold out as was the Courtyard across the street.  Their solution was to move us to another property 25 minutes away.  We got checked in at 2:00 am. No kitchen, no free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r212108059-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>212108059</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Rooms clean</t>
+  </si>
+  <si>
+    <t>Don't judge the hotel by the condition of the entryway, which was a bit of a mess -- dirty, unswept -- or the hallways with carpeting in need of cleaning.  It's an older Residence Inn, though it's been refurnished with the one-armed red sofa and vinyl chair.   The room was really quite immaculate and comfortable.  Wifi was fast and dependable.  Quiet location set among office buildings.  A Denny's and a Chinese place about a block away and a list at the front desk of places that deliver.  Alma at the front desk should get a raise -- outstanding customer service kinda like all Marriott properties used to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Don't judge the hotel by the condition of the entryway, which was a bit of a mess -- dirty, unswept -- or the hallways with carpeting in need of cleaning.  It's an older Residence Inn, though it's been refurnished with the one-armed red sofa and vinyl chair.   The room was really quite immaculate and comfortable.  Wifi was fast and dependable.  Quiet location set among office buildings.  A Denny's and a Chinese place about a block away and a list at the front desk of places that deliver.  Alma at the front desk should get a raise -- outstanding customer service kinda like all Marriott properties used to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r210751935-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>210751935</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>I'm the team mom for a girls basketball team, and this is the 5th year we have stayed at this property!!!  We have traveled with as little as 30 people to as many as 60, every time it's been great.  The convenience of the breakfast is wonderful, they have even set up early on a few occasions when our games are super early &amp; we have to leave before the normal breakfast hours.  The staff make us feel right at home &amp; Im sure the "new" team mom next year will continue the tradition. Rooms are always clean &amp; comfortable, they even have a foam topper at front desk to make the sofa sleeper a little more comfortable. The girls stock the fridge with drinks &amp; snacks, &amp; some rooms have mini ovens that we like making cookies in.  Very convenient to Belmar, a wonderful shopping district.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm the team mom for a girls basketball team, and this is the 5th year we have stayed at this property!!!  We have traveled with as little as 30 people to as many as 60, every time it's been great.  The convenience of the breakfast is wonderful, they have even set up early on a few occasions when our games are super early &amp; we have to leave before the normal breakfast hours.  The staff make us feel right at home &amp; Im sure the "new" team mom next year will continue the tradition. Rooms are always clean &amp; comfortable, they even have a foam topper at front desk to make the sofa sleeper a little more comfortable. The girls stock the fridge with drinks &amp; snacks, &amp; some rooms have mini ovens that we like making cookies in.  Very convenient to Belmar, a wonderful shopping district.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r210179124-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>210179124</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Nice location and Friendly Staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night before starting our Colorado vacation. We very much enjoyed the evening Manager's Reception with a nice offering of hot food and free beer and wine.Our room was quite spacious and very typical of the Residence Inn properties. The high speed Internet was of decent bandwidth and we had no problems connecting with all of our devices.The complimentary breakfast was also very nice and consistent with the RI brand. Overall, we had a very pleasant stay and enjoyed chatting with the staff and other guests at the evening reception. We would definitely stay here again on future visits to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r199630251-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>199630251</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>We usually stay at Residence Inn hotels as we have a pug and they are extremely pet friendly. This location was no different - wonderful layout in a newer building, clean rooms, comfortable beds, fluffy pillows, and a patio that makes it easy for our dog to go out and use the restroom. We left at 5am, so the hot breakfast wasn't out yet, but yogurt, fruit, and cereal were, so we grabbed some for the road at the prompting of the front desk clerk. No need for hotel services, though everyone was friendly. I would say that this location is just a bit back from the main road than most others, which could be a bonus to some. Overall a nice place for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We usually stay at Residence Inn hotels as we have a pug and they are extremely pet friendly. This location was no different - wonderful layout in a newer building, clean rooms, comfortable beds, fluffy pillows, and a patio that makes it easy for our dog to go out and use the restroom. We left at 5am, so the hot breakfast wasn't out yet, but yogurt, fruit, and cereal were, so we grabbed some for the road at the prompting of the front desk clerk. No need for hotel services, though everyone was friendly. I would say that this location is just a bit back from the main road than most others, which could be a bonus to some. Overall a nice place for an overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r197652737-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>197652737</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>We stayed here because of an early morning medical appointment and snow was in the forecast. We live at 9,000 ft. in the mountains.The hotel met and exceeded all of our expectations.  The rooms were very clean and the hot tub was a nice respite from the cold outside.  The property is close to US 285, but far enough away that we did not hear any road noises. The staff were very friendly.The only negatives and they are trivial were 1) The Market in the hotel was adequate, but not  overly abundant with choices, and 2) the turner on the microwave in our room needed repair.  It only worked intermittently and often made loud clunking noises.  As a result the Teriyaki meal that we got from the Market was burned on one side. If you plan on eating in the room, you may want to bring your own ready to eat meals. The complimentary breakfast was warm and supplied with all that is usual for a hotel of this caliber.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here because of an early morning medical appointment and snow was in the forecast. We live at 9,000 ft. in the mountains.The hotel met and exceeded all of our expectations.  The rooms were very clean and the hot tub was a nice respite from the cold outside.  The property is close to US 285, but far enough away that we did not hear any road noises. The staff were very friendly.The only negatives and they are trivial were 1) The Market in the hotel was adequate, but not  overly abundant with choices, and 2) the turner on the microwave in our room needed repair.  It only worked intermittently and often made loud clunking noises.  As a result the Teriyaki meal that we got from the Market was burned on one side. If you plan on eating in the room, you may want to bring your own ready to eat meals. The complimentary breakfast was warm and supplied with all that is usual for a hotel of this caliber.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r196119018-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>196119018</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Couldn't wait to leave</t>
+  </si>
+  <si>
+    <t>Your staff was quite nice. I had made a reservation about a month ago, but it was nowhere to be found in the system.  I originally went to the property at Denver west and was told they were booked for the night and that I must have made a mistake.  I was sent to the Lakewood property without even a phone call to check my Res.  When I arrived, I was told I had none.  I have stayed at several Residence Inn's in the past, and felt no qualms about booking your largest room based on those stays.  I had counted on the evening receptions (when I booked on the website, it said it hosted one nightly), so I had not brought food/beverage for apps, etc.  I was informed that "this property" did not have one on Saturday evenings.  The room had a low ceiling and a cramped feeling with a view of a wall.  There was almost no one staying there, so I don't know why I was given such a crappy room after paying for a 2 bedroom queen and being told "we have plenty".  The furniture was dirty and low rent and upon pulling out the couch bed, found there were no linens anywhere for it.  I called down and the same super nice front desk guy came up with some sheets and handed them to me.  No pillows, no blankets, no comforter.  I asked about those...Your staff was quite nice. I had made a reservation about a month ago, but it was nowhere to be found in the system.  I originally went to the property at Denver west and was told they were booked for the night and that I must have made a mistake.  I was sent to the Lakewood property without even a phone call to check my Res.  When I arrived, I was told I had none.  I have stayed at several Residence Inn's in the past, and felt no qualms about booking your largest room based on those stays.  I had counted on the evening receptions (when I booked on the website, it said it hosted one nightly), so I had not brought food/beverage for apps, etc.  I was informed that "this property" did not have one on Saturday evenings.  The room had a low ceiling and a cramped feeling with a view of a wall.  There was almost no one staying there, so I don't know why I was given such a crappy room after paying for a 2 bedroom queen and being told "we have plenty".  The furniture was dirty and low rent and upon pulling out the couch bed, found there were no linens anywhere for it.  I called down and the same super nice front desk guy came up with some sheets and handed them to me.  No pillows, no blankets, no comforter.  I asked about those and he said "I thought you just wanted linens".  As I made my own pull out bed (one of the most uncomfortable, old, stained mattresses), he showed back up with some pillows and a worn out thin blanket.  No comforter.  Seriously...my kids told me the next morning they froze.  It was 7 degrees outside, and sometime in the night we discovered a draft. Thanks for that.  All in all, I will be very careful before booking again, and would never ever recommend this particular property.  It needs tremendous updating, but the location is so crummy, I don't know that it calls for it.  I would ditch this property if I were in charge of your chain.  All I could think about was getting back to the comfort of my home.  The kitchen was probably most in need of updates.  Flatware was bent up...three old plates for a 2-bedroom...stuff like that.  Your staff, however, is very kind though the poor guy seemed to be doing absolutely everything himself on a Saturday night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Your staff was quite nice. I had made a reservation about a month ago, but it was nowhere to be found in the system.  I originally went to the property at Denver west and was told they were booked for the night and that I must have made a mistake.  I was sent to the Lakewood property without even a phone call to check my Res.  When I arrived, I was told I had none.  I have stayed at several Residence Inn's in the past, and felt no qualms about booking your largest room based on those stays.  I had counted on the evening receptions (when I booked on the website, it said it hosted one nightly), so I had not brought food/beverage for apps, etc.  I was informed that "this property" did not have one on Saturday evenings.  The room had a low ceiling and a cramped feeling with a view of a wall.  There was almost no one staying there, so I don't know why I was given such a crappy room after paying for a 2 bedroom queen and being told "we have plenty".  The furniture was dirty and low rent and upon pulling out the couch bed, found there were no linens anywhere for it.  I called down and the same super nice front desk guy came up with some sheets and handed them to me.  No pillows, no blankets, no comforter.  I asked about those...Your staff was quite nice. I had made a reservation about a month ago, but it was nowhere to be found in the system.  I originally went to the property at Denver west and was told they were booked for the night and that I must have made a mistake.  I was sent to the Lakewood property without even a phone call to check my Res.  When I arrived, I was told I had none.  I have stayed at several Residence Inn's in the past, and felt no qualms about booking your largest room based on those stays.  I had counted on the evening receptions (when I booked on the website, it said it hosted one nightly), so I had not brought food/beverage for apps, etc.  I was informed that "this property" did not have one on Saturday evenings.  The room had a low ceiling and a cramped feeling with a view of a wall.  There was almost no one staying there, so I don't know why I was given such a crappy room after paying for a 2 bedroom queen and being told "we have plenty".  The furniture was dirty and low rent and upon pulling out the couch bed, found there were no linens anywhere for it.  I called down and the same super nice front desk guy came up with some sheets and handed them to me.  No pillows, no blankets, no comforter.  I asked about those and he said "I thought you just wanted linens".  As I made my own pull out bed (one of the most uncomfortable, old, stained mattresses), he showed back up with some pillows and a worn out thin blanket.  No comforter.  Seriously...my kids told me the next morning they froze.  It was 7 degrees outside, and sometime in the night we discovered a draft. Thanks for that.  All in all, I will be very careful before booking again, and would never ever recommend this particular property.  It needs tremendous updating, but the location is so crummy, I don't know that it calls for it.  I would ditch this property if I were in charge of your chain.  All I could think about was getting back to the comfort of my home.  The kitchen was probably most in need of updates.  Flatware was bent up...three old plates for a 2-bedroom...stuff like that.  Your staff, however, is very kind though the poor guy seemed to be doing absolutely everything himself on a Saturday night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r181036853-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>181036853</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Above and beyond expectations, at a value!</t>
+  </si>
+  <si>
+    <t>This place is a hidden gem, literally. The location is a bit obscure (like most hotels in the area). However, the location is very central to many sites and yet still secluded enough to get a good night's sleep. The thing that sets this place apart is the amazing services offered by the hotel for free. This is what makes the hotel a huge bargain. There is an indoor pool for starters which I have found out is a rare thing I'm the Denver area. Second, they have awesome kitchens to save money on food. Third they have a small basketball and volleyball area our front. They also have an out door grill. The big two shining features for me though are #1- A new hot breakfast choice everyday, as well as a free hot evening meal with free beer wine and soda! The second biggie is that they offer free grocery shopping. They put it in the room bill, you just write a grocery list in the morning and you come back to a stacked fridge. I loved this so much. The staff were all very polite and thoughtful. I would recommend this to anyone from families to business travelers and beyond because the features are superb.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel H, Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>This place is a hidden gem, literally. The location is a bit obscure (like most hotels in the area). However, the location is very central to many sites and yet still secluded enough to get a good night's sleep. The thing that sets this place apart is the amazing services offered by the hotel for free. This is what makes the hotel a huge bargain. There is an indoor pool for starters which I have found out is a rare thing I'm the Denver area. Second, they have awesome kitchens to save money on food. Third they have a small basketball and volleyball area our front. They also have an out door grill. The big two shining features for me though are #1- A new hot breakfast choice everyday, as well as a free hot evening meal with free beer wine and soda! The second biggie is that they offer free grocery shopping. They put it in the room bill, you just write a grocery list in the morning and you come back to a stacked fridge. I loved this so much. The staff were all very polite and thoughtful. I would recommend this to anyone from families to business travelers and beyond because the features are superb.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r181010575-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>181010575</t>
+  </si>
+  <si>
+    <t>Genuinely Pet Friendly!!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here due to all the flooding last month. We've had to stay in a lot of hotels, and it has been tough on all of us. Beds have been lumpy. People have been rude. Rooms have been small and sometimes even dirty. Until we arrived here, The Residence Inn; it feels like a place we can actually relax and settle in, for a little while. The room is large and well laid out for our extended stay situation. Though the furnishings are not brand new, the room was spotless and obviously well cared for! The best part is, mommy doesn't have to worry about us ruining the furniture here, YAY!! We are on a very quiet side of the hotel where the orange ones and I can enjoy sunning ourselves in the windows as we watch squirrels and bunnies.And I hear the beds are SUPER comfy!!!Everyone is enjoying their stay!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed here due to all the flooding last month. We've had to stay in a lot of hotels, and it has been tough on all of us. Beds have been lumpy. People have been rude. Rooms have been small and sometimes even dirty. Until we arrived here, The Residence Inn; it feels like a place we can actually relax and settle in, for a little while. The room is large and well laid out for our extended stay situation. Though the furnishings are not brand new, the room was spotless and obviously well cared for! The best part is, mommy doesn't have to worry about us ruining the furniture here, YAY!! We are on a very quiet side of the hotel where the orange ones and I can enjoy sunning ourselves in the windows as we watch squirrels and bunnies.And I hear the beds are SUPER comfy!!!Everyone is enjoying their stay!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r180687511-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>180687511</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>We are Marriott Gold Club members and have stayed at numerous Marriott properties. This hotel does not deserve to have the Marriott name on it. The rooms are in desperate of updating and the room was dirty. The bedding was old and what you would expect from a dumpy hotel. The furniture looks like something a college student would reject. We stood at the check in desk for five minutes before the manager came to help us. Stay away unless you have very low standards or want to be disappointedMoreShow less</t>
+  </si>
+  <si>
+    <t>We are Marriott Gold Club members and have stayed at numerous Marriott properties. This hotel does not deserve to have the Marriott name on it. The rooms are in desperate of updating and the room was dirty. The bedding was old and what you would expect from a dumpy hotel. The furniture looks like something a college student would reject. We stood at the check in desk for five minutes before the manager came to help us. Stay away unless you have very low standards or want to be disappointedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r176818133-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>176818133</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Quietest hotel I've ever stayed at!</t>
+  </si>
+  <si>
+    <t>I chose this hotel based on reviews on this site and I was very pleased with the hotel.  It was the "quietest" hotel I ever stayed at.  Did not hear a thing from other rooms, traffic, elevators, or other guests.  That was a first ever for me!  The room was very clean (and I am very picky) I thought the furniture was very nice and clean.  The staff was extremely friendly and accommodating.  I smelled cigarette smoke the second morning we were there (we stayed 3 nights) and I told the staff.  They were very concerned and asked that I call down immediately if I smelled it again.  I could not smell it the next morning.  I never smelled any cooking odors either.  The breakfast was terrific.  There were several special items each morning along with every other breakfast type food you can think of, juice, coffee, tea, fruit, yogurt, toasts, bagels, etc.  There was a guest get together one of the nights we were there but we didn't make it.  We didn't use the pool or other facilities but everything looked very nice and clean.  They vacuum alot!  The stairs needed vacuuming though.  The location was ideal, very easy to get to high way, lots of restaurants in the area, several within walking distance, very convenient.  We would definitely stay here again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I chose this hotel based on reviews on this site and I was very pleased with the hotel.  It was the "quietest" hotel I ever stayed at.  Did not hear a thing from other rooms, traffic, elevators, or other guests.  That was a first ever for me!  The room was very clean (and I am very picky) I thought the furniture was very nice and clean.  The staff was extremely friendly and accommodating.  I smelled cigarette smoke the second morning we were there (we stayed 3 nights) and I told the staff.  They were very concerned and asked that I call down immediately if I smelled it again.  I could not smell it the next morning.  I never smelled any cooking odors either.  The breakfast was terrific.  There were several special items each morning along with every other breakfast type food you can think of, juice, coffee, tea, fruit, yogurt, toasts, bagels, etc.  There was a guest get together one of the nights we were there but we didn't make it.  We didn't use the pool or other facilities but everything looked very nice and clean.  They vacuum alot!  The stairs needed vacuuming though.  The location was ideal, very easy to get to high way, lots of restaurants in the area, several within walking distance, very convenient.  We would definitely stay here again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r175570692-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>175570692</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel With A Friendly Team</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this Residence Inn. Checked in very late at night and the person at the front desk was very professional,upbeat and extremely efficient. The breakfast was good and the rooms were kept clean and inviting. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this Residence Inn. Checked in very late at night and the person at the front desk was very professional,upbeat and extremely efficient. The breakfast was good and the rooms were kept clean and inviting. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r174168774-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>174168774</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Cons, few pros: Night clerk needs more customer service training.</t>
+  </si>
+  <si>
+    <t>We had more problems with the male night clerk C than ever before at any hotel!  While he was pleasant enough and even bordered on friendly, it was more like talking to someone who was told what to say and did not think on his own.  In our opinion, he not only needed more customer service training, but training on how to treat people and to put oneself in the other person's place.  We would have understood a few glitches.  The clerk gave us the wrong time for breakfast and then corrected that. That we understood since their times change from weekends.  When I asked about the price for doing laundry (It was empty in the laundry room, so that made it nice and fast.) I was told it is $ 1.25 but he did not say it takes only quarters, so that was an extra trip for more quarters.
+Our card for the door did not work, and someone else's also did not so it seemed apparent that it was not done right since ours were not even close to anything magnetic and it was first time use, not a second or third day.  We also made that know the next morning.   
+What really got us angry was that we booked our room more than five months ahead, but he said: "We did not make a reservation, we put in a request."  I said in all other hotels it...We had more problems with the male night clerk C than ever before at any hotel!  While he was pleasant enough and even bordered on friendly, it was more like talking to someone who was told what to say and did not think on his own.  In our opinion, he not only needed more customer service training, but training on how to treat people and to put oneself in the other person's place.  We would have understood a few glitches.  The clerk gave us the wrong time for breakfast and then corrected that. That we understood since their times change from weekends.  When I asked about the price for doing laundry (It was empty in the laundry room, so that made it nice and fast.) I was told it is $ 1.25 but he did not say it takes only quarters, so that was an extra trip for more quarters.Our card for the door did not work, and someone else's also did not so it seemed apparent that it was not done right since ours were not even close to anything magnetic and it was first time use, not a second or third day.  We also made that know the next morning.   What really got us angry was that we booked our room more than five months ahead, but he said: "We did not make a reservation, we put in a request."  I said in all other hotels it is a reservation. We had asked for a room away from elevators and ice machines, highest floor possible.   Then he failed to tell us that the bed also came with a pull out sofa.  We were so upset at this point that we were ready to leave.  We checked our "reservation", not "request". While it was our fault that we assumed we had booked two queens, it was a double looking size and the sofa pull out, but he failed to mention that the sofa did pull out!  Then when we asked if they had a king or two queens, he said  " The managers say we can't upgrade, and there is only one room with two queens and you will have to pay more."  When we asked to speak to a manger, he said we would have to wait until morning. Too bad he did not have the authority to make things right. They could have upgraded us to the empty room.  He said it was the only room left, so it sounded like our reservation("Request" in his terms)  was not held. When I said we would be calling Corporate when we returned home, he seemed not to care at all. His customer service skills were seriously lacking,yet when we talked to the manager the next morning he kept repeating that this clerk was his star pupil.  When we said, "Not for us" he just repeated it several times and then said we obviously wanted something, and he would give us 2,000 points.  What we wanted was good, even average customer service and accurate information.  There was a lack with us of the attitude of really wanting to make things right, more the attitude of were were after something not due us.   Nice gesture but we will NOT return to this particular Marriott.   My husband at the beginning joked that we brought along our pet moose, and the clerk said: "Then you will need a room on the first floor".  At least there was some humor involved in his thinking we had something like a dog.The reason we gave an average instead of poor was that even though the clerk basically did not care and was far from alert the breakfast and property were decent in several ways.  However: The pool clock was one hour ahead, the laundry clocked had stopped, there was no bath mat to put in the tub so it was slippery.  When we brought that up the manager said one could request one, but I said by the time one is getting ready to step in as I was..my husband also talked to him so at that point he said he would check into putting a little note to let people know one is available.  There was a sign not to turn the a/c below 68, but it was not cool at 68.  We usually are very happy with our hotel experiences and easy to please, but this time was the worst exception we have experienced in years of travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>We had more problems with the male night clerk C than ever before at any hotel!  While he was pleasant enough and even bordered on friendly, it was more like talking to someone who was told what to say and did not think on his own.  In our opinion, he not only needed more customer service training, but training on how to treat people and to put oneself in the other person's place.  We would have understood a few glitches.  The clerk gave us the wrong time for breakfast and then corrected that. That we understood since their times change from weekends.  When I asked about the price for doing laundry (It was empty in the laundry room, so that made it nice and fast.) I was told it is $ 1.25 but he did not say it takes only quarters, so that was an extra trip for more quarters.
+Our card for the door did not work, and someone else's also did not so it seemed apparent that it was not done right since ours were not even close to anything magnetic and it was first time use, not a second or third day.  We also made that know the next morning.   
+What really got us angry was that we booked our room more than five months ahead, but he said: "We did not make a reservation, we put in a request."  I said in all other hotels it...We had more problems with the male night clerk C than ever before at any hotel!  While he was pleasant enough and even bordered on friendly, it was more like talking to someone who was told what to say and did not think on his own.  In our opinion, he not only needed more customer service training, but training on how to treat people and to put oneself in the other person's place.  We would have understood a few glitches.  The clerk gave us the wrong time for breakfast and then corrected that. That we understood since their times change from weekends.  When I asked about the price for doing laundry (It was empty in the laundry room, so that made it nice and fast.) I was told it is $ 1.25 but he did not say it takes only quarters, so that was an extra trip for more quarters.Our card for the door did not work, and someone else's also did not so it seemed apparent that it was not done right since ours were not even close to anything magnetic and it was first time use, not a second or third day.  We also made that know the next morning.   What really got us angry was that we booked our room more than five months ahead, but he said: "We did not make a reservation, we put in a request."  I said in all other hotels it is a reservation. We had asked for a room away from elevators and ice machines, highest floor possible.   Then he failed to tell us that the bed also came with a pull out sofa.  We were so upset at this point that we were ready to leave.  We checked our "reservation", not "request". While it was our fault that we assumed we had booked two queens, it was a double looking size and the sofa pull out, but he failed to mention that the sofa did pull out!  Then when we asked if they had a king or two queens, he said  " The managers say we can't upgrade, and there is only one room with two queens and you will have to pay more."  When we asked to speak to a manger, he said we would have to wait until morning. Too bad he did not have the authority to make things right. They could have upgraded us to the empty room.  He said it was the only room left, so it sounded like our reservation("Request" in his terms)  was not held. When I said we would be calling Corporate when we returned home, he seemed not to care at all. His customer service skills were seriously lacking,yet when we talked to the manager the next morning he kept repeating that this clerk was his star pupil.  When we said, "Not for us" he just repeated it several times and then said we obviously wanted something, and he would give us 2,000 points.  What we wanted was good, even average customer service and accurate information.  There was a lack with us of the attitude of really wanting to make things right, more the attitude of were were after something not due us.   Nice gesture but we will NOT return to this particular Marriott.   My husband at the beginning joked that we brought along our pet moose, and the clerk said: "Then you will need a room on the first floor".  At least there was some humor involved in his thinking we had something like a dog.The reason we gave an average instead of poor was that even though the clerk basically did not care and was far from alert the breakfast and property were decent in several ways.  However: The pool clock was one hour ahead, the laundry clocked had stopped, there was no bath mat to put in the tub so it was slippery.  When we brought that up the manager said one could request one, but I said by the time one is getting ready to step in as I was..my husband also talked to him so at that point he said he would check into putting a little note to let people know one is available.  There was a sign not to turn the a/c below 68, but it was not cool at 68.  We usually are very happy with our hotel experiences and easy to please, but this time was the worst exception we have experienced in years of travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r169820883-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>169820883</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Gold member left unimpressed</t>
+  </si>
+  <si>
+    <t>My husband is a gold member and we were not too happy with our room on the first floor.  A bit noisy, the sink was clogged and the closet doors fell off their track.  Overall, the breakfast was fine and the front desk friendly but the room fell short of expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2013</t>
+  </si>
+  <si>
+    <t>My husband is a gold member and we were not too happy with our room on the first floor.  A bit noisy, the sink was clogged and the closet doors fell off their track.  Overall, the breakfast was fine and the front desk friendly but the room fell short of expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r169287285-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>169287285</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Paper-Thin Walls :(</t>
+  </si>
+  <si>
+    <t>When we first got here the property was exactly as I expected. Front desk staff helpful and cheerful, clean property, etc., but once we were in the room we realized the walls are paper thin. The people above us have a toddler and we can hear every footstep of adults and child. Conversational voices from an open door across the hall drift right into our room. And worst yet, I can hear the people next door talking to each other in low voices. I have stayed in many Marriott properties all over the country and never experienced anything like this. I find myself whispering to my husband because I know our neighbors can hear us. ... Please Lord, do not strike the neighbors with romantic notions. I don't think I can take it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>When we first got here the property was exactly as I expected. Front desk staff helpful and cheerful, clean property, etc., but once we were in the room we realized the walls are paper thin. The people above us have a toddler and we can hear every footstep of adults and child. Conversational voices from an open door across the hall drift right into our room. And worst yet, I can hear the people next door talking to each other in low voices. I have stayed in many Marriott properties all over the country and never experienced anything like this. I find myself whispering to my husband because I know our neighbors can hear us. ... Please Lord, do not strike the neighbors with romantic notions. I don't think I can take it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r166924892-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>166924892</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Nice clean rooms but walls are paper thin!</t>
+  </si>
+  <si>
+    <t>The hotel allows dogs and every morning the dog next door started barking at 5 am.  The rooms were comfortable and the kitchen area was fine for us.  The day management was friendly and helpful during our entire stay.  The night desk staff needs training on how to treat guest.  I would stay there again if dogs were not allowed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>The hotel allows dogs and every morning the dog next door started barking at 5 am.  The rooms were comfortable and the kitchen area was fine for us.  The day management was friendly and helpful during our entire stay.  The night desk staff needs training on how to treat guest.  I would stay there again if dogs were not allowed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r154970955-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>154970955</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Nice Property, Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week.  The breakfast area and food was fine.  I enjoyed the room, which was quiet and quite comfortable.  I also enjoyed the work out area and the spa/hot tub.  I found every piece of workout equipment to be in good condition.  The only slight disappointment that I had was with the housekeeping stafff which didn't leave enough bathroom tissue. If that's the only issue, then this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week.  The breakfast area and food was fine.  I enjoyed the room, which was quiet and quite comfortable.  I also enjoyed the work out area and the spa/hot tub.  I found every piece of workout equipment to be in good condition.  The only slight disappointment that I had was with the housekeeping stafff which didn't leave enough bathroom tissue. If that's the only issue, then this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r148637662-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>148637662</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Comfortable Room</t>
+  </si>
+  <si>
+    <t>We stayed here from Dec 22 through Xmas day and our stay was excellent.  The airport had accidentally transferred our luggage and the front desk was very nice about us checking in every so often to see if it was delivered.  They also had everything we needed (toiletry- wise).  Breakfast was pretty good.  The room was very nice.  We paid $85 a night and that was a bargain.  You get soo much more here for not much more than you would pay for a Super 8 or Holiday Inn.  The bed was soo comfortable.  The hotel was quiet as well and very clean.  The decor was dated but you could only tell because of the style, it was very well taken care of and clean.  But I know some people out there really care about how updated the rooms are so if you are one of those then you may want to stay somewhere else.  There was nothing fancy about the hotel or the room but it was very nice and comfortable and we had a lot of space in our room.  Best hotel I've stayed in and best bang for your buck!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here from Dec 22 through Xmas day and our stay was excellent.  The airport had accidentally transferred our luggage and the front desk was very nice about us checking in every so often to see if it was delivered.  They also had everything we needed (toiletry- wise).  Breakfast was pretty good.  The room was very nice.  We paid $85 a night and that was a bargain.  You get soo much more here for not much more than you would pay for a Super 8 or Holiday Inn.  The bed was soo comfortable.  The hotel was quiet as well and very clean.  The decor was dated but you could only tell because of the style, it was very well taken care of and clean.  But I know some people out there really care about how updated the rooms are so if you are one of those then you may want to stay somewhere else.  There was nothing fancy about the hotel or the room but it was very nice and comfortable and we had a lot of space in our room.  Best hotel I've stayed in and best bang for your buck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r147142482-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>147142482</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Waited long before reviewing this one in order to be more objective</t>
+  </si>
+  <si>
+    <t>A long-term stay of 3 full weeks means that my expectations are very different than a normal couple of nights and so for the most part, I'm giving this hotel a thumbs up.  The issues that would have brought the rating down were really due to my company and the length of my stay, not the hotel so I wanted to hold off.  My stay was during September and into mid-October and what I remember most is that the housekeeping staff ALWAYS smiled and said hello, the lady at breakfast was outstanding with her smiles and checking on me, once notified of a very huge billing issue the staff bent over backwards to apologize to our group and make it right, but most of all I will remember that I felt "at home" in general and so that really says a lot about this hotel.  I had a 1 bedroom with a door between the living area and bed so I had a small dresser in the sleeping area that the suite rooms did not.  For a night or two this wouldn't be an issue but for any longer than that, drawer space would pose a problem.  The workout room is very small but the treadmills were new and sufficient.  The area is quiet and there's no traffic noise.  The breakfast is better than most standard freebies and the manager's reception in the evenings was nice to have whether eating...A long-term stay of 3 full weeks means that my expectations are very different than a normal couple of nights and so for the most part, I'm giving this hotel a thumbs up.  The issues that would have brought the rating down were really due to my company and the length of my stay, not the hotel so I wanted to hold off.  My stay was during September and into mid-October and what I remember most is that the housekeeping staff ALWAYS smiled and said hello, the lady at breakfast was outstanding with her smiles and checking on me, once notified of a very huge billing issue the staff bent over backwards to apologize to our group and make it right, but most of all I will remember that I felt "at home" in general and so that really says a lot about this hotel.  I had a 1 bedroom with a door between the living area and bed so I had a small dresser in the sleeping area that the suite rooms did not.  For a night or two this wouldn't be an issue but for any longer than that, drawer space would pose a problem.  The workout room is very small but the treadmills were new and sufficient.  The area is quiet and there's no traffic noise.  The breakfast is better than most standard freebies and the manager's reception in the evenings was nice to have whether eating or not.  I was with a large group for a long time stay so we pretty much took over the lobby, even on non-reception evenings, with our own crockpots and food - the staff was WONDERFUL about this and really encouraged us to use the lobby as our own living room.  That was very much appreciated.  My one big complaint would be that the door into the lobby doesn't stay open which isn't a problem is you just have a couple bags but when you're moving in for almost a month it's definitely a pain!  Overall I have very fond memories of the hotel, staff, and Denver during the beautiful Fall.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2012</t>
+  </si>
+  <si>
+    <t>A long-term stay of 3 full weeks means that my expectations are very different than a normal couple of nights and so for the most part, I'm giving this hotel a thumbs up.  The issues that would have brought the rating down were really due to my company and the length of my stay, not the hotel so I wanted to hold off.  My stay was during September and into mid-October and what I remember most is that the housekeeping staff ALWAYS smiled and said hello, the lady at breakfast was outstanding with her smiles and checking on me, once notified of a very huge billing issue the staff bent over backwards to apologize to our group and make it right, but most of all I will remember that I felt "at home" in general and so that really says a lot about this hotel.  I had a 1 bedroom with a door between the living area and bed so I had a small dresser in the sleeping area that the suite rooms did not.  For a night or two this wouldn't be an issue but for any longer than that, drawer space would pose a problem.  The workout room is very small but the treadmills were new and sufficient.  The area is quiet and there's no traffic noise.  The breakfast is better than most standard freebies and the manager's reception in the evenings was nice to have whether eating...A long-term stay of 3 full weeks means that my expectations are very different than a normal couple of nights and so for the most part, I'm giving this hotel a thumbs up.  The issues that would have brought the rating down were really due to my company and the length of my stay, not the hotel so I wanted to hold off.  My stay was during September and into mid-October and what I remember most is that the housekeeping staff ALWAYS smiled and said hello, the lady at breakfast was outstanding with her smiles and checking on me, once notified of a very huge billing issue the staff bent over backwards to apologize to our group and make it right, but most of all I will remember that I felt "at home" in general and so that really says a lot about this hotel.  I had a 1 bedroom with a door between the living area and bed so I had a small dresser in the sleeping area that the suite rooms did not.  For a night or two this wouldn't be an issue but for any longer than that, drawer space would pose a problem.  The workout room is very small but the treadmills were new and sufficient.  The area is quiet and there's no traffic noise.  The breakfast is better than most standard freebies and the manager's reception in the evenings was nice to have whether eating or not.  I was with a large group for a long time stay so we pretty much took over the lobby, even on non-reception evenings, with our own crockpots and food - the staff was WONDERFUL about this and really encouraged us to use the lobby as our own living room.  That was very much appreciated.  My one big complaint would be that the door into the lobby doesn't stay open which isn't a problem is you just have a couple bags but when you're moving in for almost a month it's definitely a pain!  Overall I have very fond memories of the hotel, staff, and Denver during the beautiful Fall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r142033275-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>142033275</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>The good and the bad</t>
+  </si>
+  <si>
+    <t>Nice:Rooms are comfortable with little kitchens and nice sitting area.  Adequate electrical plugins for all the electronics.  Two treadmills and an eliptical machine in workout room.  Nice breakfast every morning with fresh fruit, waffles, cereals, and 3 or 4 hot choices. I'll agree that the front desk is very friendly, always greeting you when you walk by.  Cameron goes out of his way to even light the bbq for us besides offering a smile and advice on where to go.Not so nice:Some billing issues that got tiresome and manager got testy about instead of working to resolve in a professional manner,MoreShow less</t>
+  </si>
+  <si>
+    <t>Dan H, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded November 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2012</t>
+  </si>
+  <si>
+    <t>Nice:Rooms are comfortable with little kitchens and nice sitting area.  Adequate electrical plugins for all the electronics.  Two treadmills and an eliptical machine in workout room.  Nice breakfast every morning with fresh fruit, waffles, cereals, and 3 or 4 hot choices. I'll agree that the front desk is very friendly, always greeting you when you walk by.  Cameron goes out of his way to even light the bbq for us besides offering a smile and advice on where to go.Not so nice:Some billing issues that got tiresome and manager got testy about instead of working to resolve in a professional manner,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r140814861-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>140814861</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent customer service outweighs the slightly older hotel.</t>
+  </si>
+  <si>
+    <t>Stayed in a queen one bedroom suite last weekend, family of four. We love staying in this type of accommodation so my husband and I can have our own room, with a door! The kitchen was well stocked although we did not do any cooking. Freezer had an ice maker which was nice. Hotel slightly older, and fairly certain our room had been a smoking room previously, lingering odor, although the entire property is non-smoking now. We used the pool and hot tub, and took advantage of breakfast both mornings. The staff throughout was friendly and helpful; the lady taking care of the breakfast was particularly nice! Overall, perfect stay, and the basketball court in front is a fun addition-the front desk loaned us a ball.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in a queen one bedroom suite last weekend, family of four. We love staying in this type of accommodation so my husband and I can have our own room, with a door! The kitchen was well stocked although we did not do any cooking. Freezer had an ice maker which was nice. Hotel slightly older, and fairly certain our room had been a smoking room previously, lingering odor, although the entire property is non-smoking now. We used the pool and hot tub, and took advantage of breakfast both mornings. The staff throughout was friendly and helpful; the lady taking care of the breakfast was particularly nice! Overall, perfect stay, and the basketball court in front is a fun addition-the front desk loaned us a ball.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r136882976-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>136882976</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is very comfortable.  From the moment we walked in, we were greeted warmly by the staff.  We had a 2 bedroom suite and it was very nice.  The evening reception was a salad bar the night we stayed and it was very good and well attended by the staff.  There were also delicious cookies available!  Breakfast the next morning was a typical Residence Inn breakfast.  The breakfast staff was very nice.  They ran out of a parfait without granola that my mother went back to get and they gladly made her one once they realized what she was looking for.  I would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>chris d, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is very comfortable.  From the moment we walked in, we were greeted warmly by the staff.  We had a 2 bedroom suite and it was very nice.  The evening reception was a salad bar the night we stayed and it was very good and well attended by the staff.  There were also delicious cookies available!  Breakfast the next morning was a typical Residence Inn breakfast.  The breakfast staff was very nice.  They ran out of a parfait without granola that my mother went back to get and they gladly made her one once they realized what she was looking for.  I would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r134156871-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134156871</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Fine for the price</t>
+  </si>
+  <si>
+    <t>The staff was the best thing about this place.  They were very friendly and helpfully.  The place is fine, nothing fancy, nothing exciting.  Room by the elevator was a little noisy and the walls are thin.  The furniture is a little dated and paper towels and TP were like sandpaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>chris d, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>The staff was the best thing about this place.  They were very friendly and helpfully.  The place is fine, nothing fancy, nothing exciting.  Room by the elevator was a little noisy and the walls are thin.  The furniture is a little dated and paper towels and TP were like sandpaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r131382905-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>131382905</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>The Marriott  was recommended to me since I needed to be closer to the National Cemetery.Little did I know that I would have all the comforts of home and then some . I loved the complementary breakfast every morning . The evening socials which also included a dinner was an extra pleasure . My suite was always kept clean ,housekeeping made sure to replenish all my toiletries &amp; snacks .The staff was always ready to go the extra mile for their guest . Thanks for making my stay wonderful.~ citygirlnhtown~MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>chris d, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded June 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2012</t>
+  </si>
+  <si>
+    <t>The Marriott  was recommended to me since I needed to be closer to the National Cemetery.Little did I know that I would have all the comforts of home and then some . I loved the complementary breakfast every morning . The evening socials which also included a dinner was an extra pleasure . My suite was always kept clean ,housekeeping made sure to replenish all my toiletries &amp; snacks .The staff was always ready to go the extra mile for their guest . Thanks for making my stay wonderful.~ citygirlnhtown~More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r130826945-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130826945</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>friendly staff</t>
+  </si>
+  <si>
+    <t>like most residence inns, it was spacious and comfy. The staff made sure to greet you as you passed the front desk. The area is quiet &amp; the hotel may be a little difficult to get to if you don't map it out first. The breakfast was ok, but not great. Another downfall-our windows didn't open. They used to, but at some point stops were added. I bid on priceline, so they gave us the room by the elevator (hint to hotels-people who use priceline still write reviews), but we never heard the elevator. A mall and other shopping is south of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>chris d, General Manager at Residence Inn Denver Southwest/Lakewood, responded to this reviewResponded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2012</t>
+  </si>
+  <si>
+    <t>like most residence inns, it was spacious and comfy. The staff made sure to greet you as you passed the front desk. The area is quiet &amp; the hotel may be a little difficult to get to if you don't map it out first. The breakfast was ok, but not great. Another downfall-our windows didn't open. They used to, but at some point stops were added. I bid on priceline, so they gave us the room by the elevator (hint to hotels-people who use priceline still write reviews), but we never heard the elevator. A mall and other shopping is south of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r119707920-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>119707920</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Visiting Family in Lakewood</t>
+  </si>
+  <si>
+    <t>My husband and I traveled to Denver/Lakewood to visit our son and his family. The entire staff at The Residence Inn were outstanding. Our 2 grandauthers spent two nights with us so having  a queen suite with the fold out sofa bed and a fully equiped kitchen worked really well.  Everyone enjoyed the hot breakfast served daily.  Rooms were very clean.  Will stay at this property when we return to Denver. Keep up the good work!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r119670695-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>119670695</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>Perfect for an extended stay</t>
+  </si>
+  <si>
+    <t>I stayed here with family for a week and it was perfect. The rooms were clean, the kitchen was stocked with what we needed (slightly minimal but it worked) and the staff were very friendly. Clean towels etc were dropped off daily as needed and the entire hotel was clean and fresh looking.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r117193610-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>117193610</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Accommodations</t>
+  </si>
+  <si>
+    <t>We stayed here while helping our daughter move into her college dorm.  Our room was a queen suite.  When you enter, there is a living room area to the left and a kitchen/dining area to the right.  You go diagonally to a door to get to the bedroom/bathroom area.  Overall, the layout was very functional.  The kitchen had a two-burner electric stovetop, a microwave, full-size refrigerator and a dishwasher.  The cupboards had adequate dishes, cups and utensils.  There was a small table with two chairs for dining.  Living room had a convertible sofa, TV, work desk with chair, etc.  The separate bedroom was small, but adequate.  The bathroom was well-stocked, although there was no hair dryer (front desk staff assumed that the previous occupant stole it).  The bed was comfortable.  We had two problems that made it difficult to sleep. First, since we were downstairs, we heard the people upstairs whenever they were walking around.  Second, our room was relatively close to the lobby so we heard convesations and other noise when the staff came in to prepare breakfast.  Speaking of breakfast, it was actually pretty good.  It was an expanded continental breakfast that included scrambled eggs, sausage and potato wedges.  The dining area was a decent size.  Overall, the stay was not bad.  Next time I would try to get an upstairs room, and I would try to make sure that I am away from the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We stayed here while helping our daughter move into her college dorm.  Our room was a queen suite.  When you enter, there is a living room area to the left and a kitchen/dining area to the right.  You go diagonally to a door to get to the bedroom/bathroom area.  Overall, the layout was very functional.  The kitchen had a two-burner electric stovetop, a microwave, full-size refrigerator and a dishwasher.  The cupboards had adequate dishes, cups and utensils.  There was a small table with two chairs for dining.  Living room had a convertible sofa, TV, work desk with chair, etc.  The separate bedroom was small, but adequate.  The bathroom was well-stocked, although there was no hair dryer (front desk staff assumed that the previous occupant stole it).  The bed was comfortable.  We had two problems that made it difficult to sleep. First, since we were downstairs, we heard the people upstairs whenever they were walking around.  Second, our room was relatively close to the lobby so we heard convesations and other noise when the staff came in to prepare breakfast.  Speaking of breakfast, it was actually pretty good.  It was an expanded continental breakfast that included scrambled eggs, sausage and potato wedges.  The dining area was a decent size.  Overall, the stay was not bad.  Next time I would try to get an upstairs room, and I would try to make sure that I am away from the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r114644588-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>114644588</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>The excellent, the good and the not so good ... but all's well.</t>
+  </si>
+  <si>
+    <t>Greetings,The standout was the staff - every staff member I encountered or had interactions with were helpful and pleasant in every way, no matter the time of day or night, no matter if it was the GM, the front desk or the room attendants.Location was good, walking distance to Old Chicago (great gourmet style pizzas, excellent beers and they have NTN Buzztime Trivia as well!) and although you have to cross a busy 4 (or 6) lane, also an excellent Mexican restaurant that I cannot remember the name of.The hotel was somewhat dated ... furniture was a little worn and the TV's although there was an abundance of them, were all quite dated and detracted from the numerous channel offerings. Also the HVAC unit was a bit loud in the living and 2nd bedroom.Otherwise a nice stay and met our need fine. The stay was focused around a reunion with a dear friend - we hadn't seen each other in 10+years, and a show @ Red RocksBe well.DavidMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Greetings,The standout was the staff - every staff member I encountered or had interactions with were helpful and pleasant in every way, no matter the time of day or night, no matter if it was the GM, the front desk or the room attendants.Location was good, walking distance to Old Chicago (great gourmet style pizzas, excellent beers and they have NTN Buzztime Trivia as well!) and although you have to cross a busy 4 (or 6) lane, also an excellent Mexican restaurant that I cannot remember the name of.The hotel was somewhat dated ... furniture was a little worn and the TV's although there was an abundance of them, were all quite dated and detracted from the numerous channel offerings. Also the HVAC unit was a bit loud in the living and 2nd bedroom.Otherwise a nice stay and met our need fine. The stay was focused around a reunion with a dear friend - we hadn't seen each other in 10+years, and a show @ Red RocksBe well.DavidMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r112409091-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>112409091</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>Nice place to hole up</t>
+  </si>
+  <si>
+    <t>I needed to spend several days on the SW of Denver.  I didn't want to eat out alone so I chose this hotel with breakfast included and a little kitchen.  It was just the ticket.  The kitchen had a small dining area.  A separate sitting and desk was a nice touch.  The room was large and comfortable and the bed was comfortable.  Why do hotels forget to keep the beds comfortable?  All in all, it was a treat.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r89102660-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>89102660</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Exceptional at one point, then disappointing in others.</t>
+  </si>
+  <si>
+    <t>They provide a "Hot Breakfast" which would be true if the lounge wasn't kept at a temperature at which you could hang meat.  The hot breakfast is cold by the time you get to your table.  The eggs are dry and severely overcooked.  Taste like they were microwaved.  The waffle batter is the consistency of milk, and the coffee tends to be shockingly strong and also overcooked.  Yes, it is possible to burn coffee.  The laundry and dry cleaning service is arm and leg expensive.  $7 just to launder a single pair of pants.  (notice I didn't say "Dry clean") The on site laundry room is a bust.  The machines only cost a buck (up side) but after two cycles through the dryer (two bucks) my single pair of  blue jeans and two flannel shirts were still damp.  Total fail.  This hotel is located about 1 mile from a terrific mall with great shopping, but good luck finding a place nearby where you can get an adult beverage to wash down the road dust.  It's a good three miles to the nearest gin joint, and that's only if you like getting your poison from a chain restaurant with boring and redundant hipster decor.  Swimming pool and workout room is open 24 hours, another up side.  Staff is extremely polite, respectful and seem to be fairly competent.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>They provide a "Hot Breakfast" which would be true if the lounge wasn't kept at a temperature at which you could hang meat.  The hot breakfast is cold by the time you get to your table.  The eggs are dry and severely overcooked.  Taste like they were microwaved.  The waffle batter is the consistency of milk, and the coffee tends to be shockingly strong and also overcooked.  Yes, it is possible to burn coffee.  The laundry and dry cleaning service is arm and leg expensive.  $7 just to launder a single pair of pants.  (notice I didn't say "Dry clean") The on site laundry room is a bust.  The machines only cost a buck (up side) but after two cycles through the dryer (two bucks) my single pair of  blue jeans and two flannel shirts were still damp.  Total fail.  This hotel is located about 1 mile from a terrific mall with great shopping, but good luck finding a place nearby where you can get an adult beverage to wash down the road dust.  It's a good three miles to the nearest gin joint, and that's only if you like getting your poison from a chain restaurant with boring and redundant hipster decor.  Swimming pool and workout room is open 24 hours, another up side.  Staff is extremely polite, respectful and seem to be fairly competent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r34062183-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>34062183</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Definitely will come back with family!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for an entire week while I was in town for business.
+I really enjoyed how I had a small kitchen to use at my leisure with all the utensils that I would need.
+I stayed on the 2nd floor- overlooking the patio and next to the laundry room.
+I could easily hear when the washing machine would go into the rinse cycle- as it sounded like the water was on in my bathroom.
+The hallway to our floor was a little dirty- but nothing to gross you out.  What can you expect with such high traffic?
+My room was awesome!  The kitchen and living area were completely separate from the bedroom.  So if I had someone stop by unexpectedly, I could easily just close my bedroom door.  The bed was very comfortable too! And the closet was very large as well.
+The hotel offered breakfast every morning- and it wasn’t just a simple continental breakfast! They would vary day to day- but they usually had scrambled eggs, bacon, potato, tortillas, hash brown, waffles, etc.  They also had a variety of drinks.  So since there was always coffee being served in the lobby, there was no need for me to dirty my dishes in my room to brew my own coffee.
+There was an instance when the orange juice needed to be replaced and I tried to let the lady know.  When I poked my...I recently stayed at this hotel for an entire week while I was in town for business.I really enjoyed how I had a small kitchen to use at my leisure with all the utensils that I would need.I stayed on the 2nd floor- overlooking the patio and next to the laundry room.I could easily hear when the washing machine would go into the rinse cycle- as it sounded like the water was on in my bathroom.The hallway to our floor was a little dirty- but nothing to gross you out.  What can you expect with such high traffic?My room was awesome!  The kitchen and living area were completely separate from the bedroom.  So if I had someone stop by unexpectedly, I could easily just close my bedroom door.  The bed was very comfortable too! And the closet was very large as well.The hotel offered breakfast every morning- and it wasn’t just a simple continental breakfast! They would vary day to day- but they usually had scrambled eggs, bacon, potato, tortillas, hash brown, waffles, etc.  They also had a variety of drinks.  So since there was always coffee being served in the lobby, there was no need for me to dirty my dishes in my room to brew my own coffee.There was an instance when the orange juice needed to be replaced and I tried to let the lady know.  When I poked my head into the kitchen and notified her, she looked at me like I was crazy, but I just assumed that I caught her off guard and was trying to process what I had just said.  She did come out and change it right away.  Later that morning, while she was putting food in the trays, she smiled at another guest and held a small conversation. So I just assume that I did catch her off guard.On a side note- there were a lot of rabbits roaming the hotel and nearby properties!There is a small Wal-Mart about ½ mile away and they do not sell groceries, but a short distance out, there is a Super Target.  You can easily shop there to make use of your kitchen! Also- they provide free wireless internet in the rooms! We stayed here as the meeting facility was 2 blocks away- but we were about an hour drive away from the mountains.  We left the hotel around 4:30pm and got to go all the way to “Berthoud’s Pass” and even play with the snow in the mountain and be back to our hotel by 9:00pm!I will definitely consider this hotel when I take my family to the Colorado Mountains!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for an entire week while I was in town for business.
+I really enjoyed how I had a small kitchen to use at my leisure with all the utensils that I would need.
+I stayed on the 2nd floor- overlooking the patio and next to the laundry room.
+I could easily hear when the washing machine would go into the rinse cycle- as it sounded like the water was on in my bathroom.
+The hallway to our floor was a little dirty- but nothing to gross you out.  What can you expect with such high traffic?
+My room was awesome!  The kitchen and living area were completely separate from the bedroom.  So if I had someone stop by unexpectedly, I could easily just close my bedroom door.  The bed was very comfortable too! And the closet was very large as well.
+The hotel offered breakfast every morning- and it wasn’t just a simple continental breakfast! They would vary day to day- but they usually had scrambled eggs, bacon, potato, tortillas, hash brown, waffles, etc.  They also had a variety of drinks.  So since there was always coffee being served in the lobby, there was no need for me to dirty my dishes in my room to brew my own coffee.
+There was an instance when the orange juice needed to be replaced and I tried to let the lady know.  When I poked my...I recently stayed at this hotel for an entire week while I was in town for business.I really enjoyed how I had a small kitchen to use at my leisure with all the utensils that I would need.I stayed on the 2nd floor- overlooking the patio and next to the laundry room.I could easily hear when the washing machine would go into the rinse cycle- as it sounded like the water was on in my bathroom.The hallway to our floor was a little dirty- but nothing to gross you out.  What can you expect with such high traffic?My room was awesome!  The kitchen and living area were completely separate from the bedroom.  So if I had someone stop by unexpectedly, I could easily just close my bedroom door.  The bed was very comfortable too! And the closet was very large as well.The hotel offered breakfast every morning- and it wasn’t just a simple continental breakfast! They would vary day to day- but they usually had scrambled eggs, bacon, potato, tortillas, hash brown, waffles, etc.  They also had a variety of drinks.  So since there was always coffee being served in the lobby, there was no need for me to dirty my dishes in my room to brew my own coffee.There was an instance when the orange juice needed to be replaced and I tried to let the lady know.  When I poked my head into the kitchen and notified her, she looked at me like I was crazy, but I just assumed that I caught her off guard and was trying to process what I had just said.  She did come out and change it right away.  Later that morning, while she was putting food in the trays, she smiled at another guest and held a small conversation. So I just assume that I did catch her off guard.On a side note- there were a lot of rabbits roaming the hotel and nearby properties!There is a small Wal-Mart about ½ mile away and they do not sell groceries, but a short distance out, there is a Super Target.  You can easily shop there to make use of your kitchen! Also- they provide free wireless internet in the rooms! We stayed here as the meeting facility was 2 blocks away- but we were about an hour drive away from the mountains.  We left the hotel around 4:30pm and got to go all the way to “Berthoud’s Pass” and even play with the snow in the mountain and be back to our hotel by 9:00pm!I will definitely consider this hotel when I take my family to the Colorado Mountains!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r27757101-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>27757101</t>
+  </si>
+  <si>
+    <t>04/10/2009</t>
+  </si>
+  <si>
+    <t>Stay somewhere else.</t>
+  </si>
+  <si>
+    <t>Stayed six nights right after Christmas 2008. The hotel was dirty, plain and simple. They had had a boiler accident and most of the first floor was closed but that is no excuse for poor housekeeping. We were first greeted by a sign on the exterior door from the fire marshall saying that sprinklers and fire alarms may not be working due to the boiler accident. This does not inspire a lot of confidence and should at least be worthy of a significant rate reduction. The stairs and hallway needed vacuumed as there was a lot of dirt and debris. It was never vacuumed the entire week we were there. Outside trash cans placed near exterior doors were full to overflowing nearly the entire week. They were finally emptied the day before we left. Ants infested the hot tub/pool area and if you were not careful would attach themselves to you and follow you to your room. Holes in the sheets and dirty glasses in the kitchen area of the room further enhanced the experience. The elevator malfunctioned and "dinged" repeatedly for several hours. If you stay here, take the stairs. Food for breakfast was ok. Service not bad but housekeeping needs serious improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>Stayed six nights right after Christmas 2008. The hotel was dirty, plain and simple. They had had a boiler accident and most of the first floor was closed but that is no excuse for poor housekeeping. We were first greeted by a sign on the exterior door from the fire marshall saying that sprinklers and fire alarms may not be working due to the boiler accident. This does not inspire a lot of confidence and should at least be worthy of a significant rate reduction. The stairs and hallway needed vacuumed as there was a lot of dirt and debris. It was never vacuumed the entire week we were there. Outside trash cans placed near exterior doors were full to overflowing nearly the entire week. They were finally emptied the day before we left. Ants infested the hot tub/pool area and if you were not careful would attach themselves to you and follow you to your room. Holes in the sheets and dirty glasses in the kitchen area of the room further enhanced the experience. The elevator malfunctioned and "dinged" repeatedly for several hours. If you stay here, take the stairs. Food for breakfast was ok. Service not bad but housekeeping needs serious improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r20812415-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>20812415</t>
+  </si>
+  <si>
+    <t>10/11/2008</t>
+  </si>
+  <si>
+    <t>Good Stay at Residence Inn</t>
+  </si>
+  <si>
+    <t>We recently stayed 3 nights at the Residence Inn Lakewood while visiting family in the area.  The 1BR suite had a small bedroom and living room but was quite comfortable &amp; clean.  The kitchen was great!  Didn't like having to enter the bedroom to get into the bathroom however.  Nice large closet.  The sink area is a nice size, but is open to the bedroom.  It worked okay for us since we are a married couple, but maybe not as well for unrelated guests.Great breakfast with fruit, hot items such as eggs, potatoes, tortillas, fresh waffles; also cereal &amp; lots of beverage choices.  The staff was wonderful!  They were very friendly and helpful.  Tucked away in a office area but convenient to the freeway and to restaurants.  Nice landscaping in the area.  We would definitely stay here again on our next visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>We recently stayed 3 nights at the Residence Inn Lakewood while visiting family in the area.  The 1BR suite had a small bedroom and living room but was quite comfortable &amp; clean.  The kitchen was great!  Didn't like having to enter the bedroom to get into the bathroom however.  Nice large closet.  The sink area is a nice size, but is open to the bedroom.  It worked okay for us since we are a married couple, but maybe not as well for unrelated guests.Great breakfast with fruit, hot items such as eggs, potatoes, tortillas, fresh waffles; also cereal &amp; lots of beverage choices.  The staff was wonderful!  They were very friendly and helpful.  Tucked away in a office area but convenient to the freeway and to restaurants.  Nice landscaping in the area.  We would definitely stay here again on our next visit to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r3844424-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>3844424</t>
+  </si>
+  <si>
+    <t>09/04/2005</t>
+  </si>
+  <si>
+    <t>Hotel is good - Karen (the GM) and Candace are another story.</t>
+  </si>
+  <si>
+    <t>To start off the Residence Inn Lakewood was a really nice place to stay. Convenient, friendly, ect. The desk staff is sufficient, the housekeeping staff is wonderful, and the rooms are very nice. Gladys in the breakfast buffet is the sweetest lady ever! 
+Our problems started when we called for directions and spoke with Karen. She was very peppy at first but has no sense of direction or patience with anyone who may be lost. The highways in this area are all labled wrong and at night this made finding the hotel kind of difficult. Karen told me that she had no idea where I was, but that I "could take Hamden to the mountains, then we're on the side". Since it was dark, we couldn't tell which direction the mountains were and had to stop at a sketchy gas station for better directions. When we finally arrived at the hotel, she was as fake as ever! We were put in a handicap smoking room that was falling apart, and when we went to the desk to inquire about moving from the ADA room, she told me "well, we can't guarantee anything. And we can't move you. The Courtyard has rooms, if you can find them". Candace, another manager, worked happy hour and shut it down fifteen minutes before it was supposed to close. She told us "if you wanted to eat you should have come down earlier. I'm so...To start off the Residence Inn Lakewood was a really nice place to stay. Convenient, friendly, ect. The desk staff is sufficient, the housekeeping staff is wonderful, and the rooms are very nice. Gladys in the breakfast buffet is the sweetest lady ever! Our problems started when we called for directions and spoke with Karen. She was very peppy at first but has no sense of direction or patience with anyone who may be lost. The highways in this area are all labled wrong and at night this made finding the hotel kind of difficult. Karen told me that she had no idea where I was, but that I "could take Hamden to the mountains, then we're on the side". Since it was dark, we couldn't tell which direction the mountains were and had to stop at a sketchy gas station for better directions. When we finally arrived at the hotel, she was as fake as ever! We were put in a handicap smoking room that was falling apart, and when we went to the desk to inquire about moving from the ADA room, she told me "well, we can't guarantee anything. And we can't move you. The Courtyard has rooms, if you can find them". Candace, another manager, worked happy hour and shut it down fifteen minutes before it was supposed to close. She told us "if you wanted to eat you should have come down earlier. I'm so sorry, but Denny's is open". We waited a few minutes for the kids to come down so we could leave for dinner, and Candace proceeded to say derogatory things about us to Karen, who was entirely too empathetic due to the directions fiasco the night before. We transfered to the Courtyard the next morning.I'm sorry, but as far as I'm concerned, a hotel is a business and the patrons do not deserve shoddy service. The Courtyard was much better, and the staff was very empathetic. Anyway, the rest of the staff is great and should be commended for their clean and friendly hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>To start off the Residence Inn Lakewood was a really nice place to stay. Convenient, friendly, ect. The desk staff is sufficient, the housekeeping staff is wonderful, and the rooms are very nice. Gladys in the breakfast buffet is the sweetest lady ever! 
+Our problems started when we called for directions and spoke with Karen. She was very peppy at first but has no sense of direction or patience with anyone who may be lost. The highways in this area are all labled wrong and at night this made finding the hotel kind of difficult. Karen told me that she had no idea where I was, but that I "could take Hamden to the mountains, then we're on the side". Since it was dark, we couldn't tell which direction the mountains were and had to stop at a sketchy gas station for better directions. When we finally arrived at the hotel, she was as fake as ever! We were put in a handicap smoking room that was falling apart, and when we went to the desk to inquire about moving from the ADA room, she told me "well, we can't guarantee anything. And we can't move you. The Courtyard has rooms, if you can find them". Candace, another manager, worked happy hour and shut it down fifteen minutes before it was supposed to close. She told us "if you wanted to eat you should have come down earlier. I'm so...To start off the Residence Inn Lakewood was a really nice place to stay. Convenient, friendly, ect. The desk staff is sufficient, the housekeeping staff is wonderful, and the rooms are very nice. Gladys in the breakfast buffet is the sweetest lady ever! Our problems started when we called for directions and spoke with Karen. She was very peppy at first but has no sense of direction or patience with anyone who may be lost. The highways in this area are all labled wrong and at night this made finding the hotel kind of difficult. Karen told me that she had no idea where I was, but that I "could take Hamden to the mountains, then we're on the side". Since it was dark, we couldn't tell which direction the mountains were and had to stop at a sketchy gas station for better directions. When we finally arrived at the hotel, she was as fake as ever! We were put in a handicap smoking room that was falling apart, and when we went to the desk to inquire about moving from the ADA room, she told me "well, we can't guarantee anything. And we can't move you. The Courtyard has rooms, if you can find them". Candace, another manager, worked happy hour and shut it down fifteen minutes before it was supposed to close. She told us "if you wanted to eat you should have come down earlier. I'm so sorry, but Denny's is open". We waited a few minutes for the kids to come down so we could leave for dinner, and Candace proceeded to say derogatory things about us to Karen, who was entirely too empathetic due to the directions fiasco the night before. We transfered to the Courtyard the next morning.I'm sorry, but as far as I'm concerned, a hotel is a business and the patrons do not deserve shoddy service. The Courtyard was much better, and the staff was very empathetic. Anyway, the rest of the staff is great and should be commended for their clean and friendly hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r3627717-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>3627717</t>
+  </si>
+  <si>
+    <t>06/30/2005</t>
+  </si>
+  <si>
+    <t>Excellent accomodations and staff</t>
+  </si>
+  <si>
+    <t>3 of us stayed here during the Women's U.S. Open, we had a two-bedroom suite and found the accommodations to be perfect.  The suite was very spacious and nothing was lacking in our "home away from home."  The rate of $129/night surprised us all - definitely value for an unbelievable price.  Rate included a full hot breakfast, which changes daily.  The staff at the Residence in were more than accomodating....friendly and ready to attend to your every whim.  I would highly recommend staying here while in the Denver area as it's close to main roads and Freeways.  Great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d224024-r3510579-Residence_Inn_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>3510579</t>
+  </si>
+  <si>
+    <t>05/29/2005</t>
+  </si>
+  <si>
+    <t>Pleasant place to stay</t>
+  </si>
+  <si>
+    <t>A pleasant and safe place to stay, rooms clean and large with a kitchen area and also complimentary breakfast.  Mon-Thur also snacks between 5 and 7pm.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2387,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2419,5376 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>194</v>
+      </c>
+      <c r="X22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>244</v>
+      </c>
+      <c r="X28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+      <c r="X31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>279</v>
+      </c>
+      <c r="X32" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" t="s">
+        <v>286</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>303</v>
+      </c>
+      <c r="X35" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X40" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>353</v>
+      </c>
+      <c r="X41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>82</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>362</v>
+      </c>
+      <c r="X42" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>366</v>
+      </c>
+      <c r="J43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>387</v>
+      </c>
+      <c r="X45" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>392</v>
+      </c>
+      <c r="K46" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K47" t="s">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s">
+        <v>400</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>402</v>
+      </c>
+      <c r="X47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s">
+        <v>414</v>
+      </c>
+      <c r="L49" t="s">
+        <v>415</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>421</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>421</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>429</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>430</v>
+      </c>
+      <c r="J52" t="s">
+        <v>431</v>
+      </c>
+      <c r="K52" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X52" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>440</v>
+      </c>
+      <c r="X53" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>445</v>
+      </c>
+      <c r="L54" t="s">
+        <v>446</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>447</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>440</v>
+      </c>
+      <c r="X54" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>440</v>
+      </c>
+      <c r="X55" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>467</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>440</v>
+      </c>
+      <c r="X57" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>469</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" t="s">
+        <v>471</v>
+      </c>
+      <c r="K58" t="s">
+        <v>472</v>
+      </c>
+      <c r="L58" t="s">
+        <v>473</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>475</v>
+      </c>
+      <c r="X58" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>478</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>480</v>
+      </c>
+      <c r="K59" t="s">
+        <v>481</v>
+      </c>
+      <c r="L59" t="s">
+        <v>482</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>483</v>
+      </c>
+      <c r="X59" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>460</v>
+      </c>
+      <c r="O60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>491</v>
+      </c>
+      <c r="X60" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>499</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>503</v>
+      </c>
+      <c r="J62" t="s">
+        <v>504</v>
+      </c>
+      <c r="K62" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>507</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X62" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>516</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>517</v>
+      </c>
+      <c r="X63" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>523</v>
+      </c>
+      <c r="L64" t="s">
+        <v>524</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>525</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>526</v>
+      </c>
+      <c r="X64" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>529</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>530</v>
+      </c>
+      <c r="J65" t="s">
+        <v>531</v>
+      </c>
+      <c r="K65" t="s">
+        <v>532</v>
+      </c>
+      <c r="L65" t="s">
+        <v>533</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>525</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>534</v>
+      </c>
+      <c r="X65" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>534</v>
+      </c>
+      <c r="X66" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>543</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>544</v>
+      </c>
+      <c r="J67" t="s">
+        <v>545</v>
+      </c>
+      <c r="K67" t="s">
+        <v>546</v>
+      </c>
+      <c r="L67" t="s">
+        <v>547</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>548</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>549</v>
+      </c>
+      <c r="X67" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>557</v>
+      </c>
+      <c r="X68" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>419</v>
+      </c>
+      <c r="L69" t="s">
+        <v>563</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>564</v>
+      </c>
+      <c r="O69" t="s">
+        <v>193</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>565</v>
+      </c>
+      <c r="X69" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>568</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>569</v>
+      </c>
+      <c r="J70" t="s">
+        <v>570</v>
+      </c>
+      <c r="K70" t="s">
+        <v>571</v>
+      </c>
+      <c r="L70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>564</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>573</v>
+      </c>
+      <c r="X70" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>576</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>577</v>
+      </c>
+      <c r="J71" t="s">
+        <v>578</v>
+      </c>
+      <c r="K71" t="s">
+        <v>579</v>
+      </c>
+      <c r="L71" t="s">
+        <v>580</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>581</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" t="s">
+        <v>586</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>587</v>
+      </c>
+      <c r="O72" t="s">
+        <v>66</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>588</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>589</v>
+      </c>
+      <c r="J73" t="s">
+        <v>590</v>
+      </c>
+      <c r="K73" t="s">
+        <v>591</v>
+      </c>
+      <c r="L73" t="s">
+        <v>592</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>593</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>600</v>
+      </c>
+      <c r="O74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>602</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>603</v>
+      </c>
+      <c r="J75" t="s">
+        <v>604</v>
+      </c>
+      <c r="K75" t="s">
+        <v>605</v>
+      </c>
+      <c r="L75" t="s">
+        <v>606</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>607</v>
+      </c>
+      <c r="O75" t="s">
+        <v>193</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>608</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>609</v>
+      </c>
+      <c r="J76" t="s">
+        <v>610</v>
+      </c>
+      <c r="K76" t="s">
+        <v>611</v>
+      </c>
+      <c r="L76" t="s">
+        <v>612</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>613</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>615</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>616</v>
+      </c>
+      <c r="J77" t="s">
+        <v>617</v>
+      </c>
+      <c r="K77" t="s">
+        <v>618</v>
+      </c>
+      <c r="L77" t="s">
+        <v>619</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>620</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>622</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>623</v>
+      </c>
+      <c r="J78" t="s">
+        <v>624</v>
+      </c>
+      <c r="K78" t="s">
+        <v>625</v>
+      </c>
+      <c r="L78" t="s">
+        <v>626</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>627</v>
+      </c>
+      <c r="O78" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>629</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>630</v>
+      </c>
+      <c r="J79" t="s">
+        <v>631</v>
+      </c>
+      <c r="K79" t="s">
+        <v>632</v>
+      </c>
+      <c r="L79" t="s">
+        <v>633</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>634</v>
+      </c>
+      <c r="O79" t="s">
+        <v>88</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>636</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>637</v>
+      </c>
+      <c r="J80" t="s">
+        <v>638</v>
+      </c>
+      <c r="K80" t="s">
+        <v>639</v>
+      </c>
+      <c r="L80" t="s">
+        <v>640</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>642</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>643</v>
+      </c>
+      <c r="J81" t="s">
+        <v>644</v>
+      </c>
+      <c r="K81" t="s">
+        <v>645</v>
+      </c>
+      <c r="L81" t="s">
+        <v>646</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36491</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s">
+        <v>651</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
